--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.687321188944395</v>
+        <v>3.687321188944281</v>
       </c>
       <c r="C2">
-        <v>1.10257428034663</v>
+        <v>1.102574280346687</v>
       </c>
       <c r="D2">
-        <v>0.006236592590204815</v>
+        <v>0.006236592590103118</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>1.256205540017916</v>
       </c>
       <c r="I2">
-        <v>0.2508929229869281</v>
+        <v>0.2508929229868997</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6643194013700437</v>
+        <v>0.6643194013700153</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.173450706309097</v>
+        <v>3.173450706309154</v>
       </c>
       <c r="C3">
-        <v>0.9472367372637791</v>
+        <v>0.9472367372632107</v>
       </c>
       <c r="D3">
-        <v>0.006885012419390713</v>
+        <v>0.006885012419393766</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>1.129568646305486</v>
       </c>
       <c r="I3">
-        <v>0.2155386733575142</v>
+        <v>0.2155386733574929</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5693567728001625</v>
+        <v>0.5693567728001483</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.863244468669222</v>
+        <v>2.863244468668995</v>
       </c>
       <c r="C4">
-        <v>0.8536658676439686</v>
+        <v>0.8536658676440538</v>
       </c>
       <c r="D4">
-        <v>0.007295771843430887</v>
+        <v>0.007295771843336574</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.122522887079811</v>
+        <v>2.122522887079796</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>1.055649240855701</v>
       </c>
       <c r="I4">
-        <v>0.1945180312639074</v>
+        <v>0.1945180312639216</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5124632899322563</v>
+        <v>0.5124632899322634</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.737947966409308</v>
+        <v>2.737947966409138</v>
       </c>
       <c r="C5">
-        <v>0.8159127557174202</v>
+        <v>0.8159127557175339</v>
       </c>
       <c r="D5">
-        <v>0.007466006782482437</v>
+        <v>0.007466006782488877</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>1.026377944344119</v>
       </c>
       <c r="I5">
-        <v>0.1860995138220574</v>
+        <v>0.1860995138220467</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4895788035220505</v>
+        <v>0.4895788035220576</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.717203916321466</v>
+        <v>2.717203916321409</v>
       </c>
       <c r="C6">
-        <v>0.8096646135137178</v>
+        <v>0.8096646135138599</v>
       </c>
       <c r="D6">
-        <v>0.00749443743210304</v>
+        <v>0.007494437432221002</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>1.021565805891058</v>
       </c>
       <c r="I6">
-        <v>0.184709854053601</v>
+        <v>0.1847098540536223</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4857954682248931</v>
+        <v>0.4857954682248646</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>2.861550436012521</v>
       </c>
       <c r="C7">
-        <v>0.8531552816102987</v>
+        <v>0.8531552816099861</v>
       </c>
       <c r="D7">
-        <v>0.007298056562380306</v>
+        <v>0.007298056562373589</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.121527170164839</v>
+        <v>2.121527170164853</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.05525117145072</v>
+        <v>1.055251171450749</v>
       </c>
       <c r="I7">
-        <v>0.1944039299772129</v>
+        <v>0.1944039299772093</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>3.508895307208377</v>
       </c>
       <c r="C8">
-        <v>1.048589979187255</v>
+        <v>1.048589979187142</v>
       </c>
       <c r="D8">
-        <v>0.00645733395073611</v>
+        <v>0.006457333950967148</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.509099924500873</v>
+        <v>2.509099924500902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6312473995711443</v>
+        <v>0.6312473995711585</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.831939348968035</v>
+        <v>4.831939348967921</v>
       </c>
       <c r="C9">
         <v>1.45015272840476</v>
       </c>
       <c r="D9">
-        <v>0.00492660055492733</v>
+        <v>0.004926600554712168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.339650519549394</v>
+        <v>3.339650519549366</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.554687329848107</v>
+        <v>1.554687329848093</v>
       </c>
       <c r="I9">
-        <v>0.3318657916961527</v>
+        <v>0.3318657916961669</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8788959735848465</v>
+        <v>0.8788959735847897</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.855407864836934</v>
+        <v>5.855407864837161</v>
       </c>
       <c r="C10">
-        <v>1.76287374756464</v>
+        <v>1.762873747564697</v>
       </c>
       <c r="D10">
-        <v>0.00390433332233453</v>
+        <v>0.003904333322257703</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.012384582905185</v>
+        <v>4.012384582905128</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>1.838320452501449</v>
       </c>
       <c r="I10">
-        <v>0.4067157460242328</v>
+        <v>0.4067157460241972</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.074194899773204</v>
+        <v>1.07419489977319</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.337343817676526</v>
+        <v>6.337343817676697</v>
       </c>
       <c r="C11">
         <v>1.910786353989806</v>
       </c>
       <c r="D11">
-        <v>0.003470495998242784</v>
+        <v>0.003470495998243228</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.976834980782783</v>
+        <v>1.976834980782769</v>
       </c>
       <c r="I11">
-        <v>0.4427363529044612</v>
+        <v>0.4427363529044541</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.1672631458149</v>
+        <v>1.167263145814943</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.52272163352751</v>
+        <v>6.522721633527397</v>
       </c>
       <c r="C12">
-        <v>1.967795959277169</v>
+        <v>1.967795959276714</v>
       </c>
       <c r="D12">
-        <v>0.00331167760454143</v>
+        <v>0.003311677604608487</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.463732457806316</v>
+        <v>4.463732457806344</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>2.030919994435692</v>
       </c>
       <c r="I12">
-        <v>0.4567226852946789</v>
+        <v>0.4567226852947073</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.203250291442501</v>
+        <v>1.203250291442529</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.482659668416943</v>
+        <v>6.482659668417</v>
       </c>
       <c r="C13">
-        <v>1.955470181437249</v>
+        <v>1.955470181436965</v>
       </c>
       <c r="D13">
-        <v>0.003345620787026826</v>
+        <v>0.003345620787241099</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.436365290963266</v>
+        <v>4.436365290963295</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>2.019194385090501</v>
       </c>
       <c r="I13">
-        <v>0.4536939495052437</v>
+        <v>0.4536939495052579</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.195464247248637</v>
+        <v>1.195464247248651</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.352533880143881</v>
+        <v>6.352533880143994</v>
       </c>
       <c r="C14">
-        <v>1.915455371256655</v>
+        <v>1.915455371256712</v>
       </c>
       <c r="D14">
-        <v>0.003457313928573624</v>
+        <v>0.003457313928568961</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.347709344260124</v>
+        <v>4.347709344260096</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>1.981250149070036</v>
       </c>
       <c r="I14">
-        <v>0.4438796759380921</v>
+        <v>0.4438796759381134</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.170208035222146</v>
+        <v>1.170208035222117</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.273220380765792</v>
+        <v>6.273220380765679</v>
       </c>
       <c r="C15">
-        <v>1.891081261769159</v>
+        <v>1.891081261768818</v>
       </c>
       <c r="D15">
-        <v>0.003526474045476347</v>
+        <v>0.00352647404547235</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.2938501074226</v>
+        <v>4.293850107422571</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.958229645172111</v>
+        <v>1.958229645172125</v>
       </c>
       <c r="I15">
-        <v>0.4379152990950672</v>
+        <v>0.4379152990950246</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>5.824284195244559</v>
       </c>
       <c r="C16">
-        <v>1.75333613674394</v>
+        <v>1.753336136744224</v>
       </c>
       <c r="D16">
-        <v>0.003933392202425834</v>
+        <v>0.003933392202376984</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.991571604292119</v>
+        <v>3.991571604292062</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.829480933790975</v>
+        <v>1.829480933790961</v>
       </c>
       <c r="I16">
         <v>0.4044064575439705</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.068208783710858</v>
+        <v>1.068208783710844</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.553410785584674</v>
+        <v>5.553410785584617</v>
       </c>
       <c r="C17">
-        <v>1.670403344744045</v>
+        <v>1.67040334474359</v>
       </c>
       <c r="D17">
-        <v>0.004191644242219184</v>
+        <v>0.004191644242576897</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.753103647590123</v>
+        <v>1.753103647590109</v>
       </c>
       <c r="I17">
-        <v>0.3843955569921746</v>
+        <v>0.3843955569921818</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.399114276259297</v>
+        <v>5.39911427625924</v>
       </c>
       <c r="C18">
-        <v>1.623221881571681</v>
+        <v>1.623221881571965</v>
       </c>
       <c r="D18">
-        <v>0.004343050293722839</v>
+        <v>0.004343050293619033</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.710047885132141</v>
+        <v>1.710047885132155</v>
       </c>
       <c r="I18">
-        <v>0.3730669415286414</v>
+        <v>0.3730669415286485</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.98672963313048</v>
+        <v>0.9867296331304942</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.347115700697486</v>
+        <v>5.3471157006976</v>
       </c>
       <c r="C19">
         <v>1.607331144769887</v>
       </c>
       <c r="D19">
-        <v>0.004394779688554395</v>
+        <v>0.004394779688414396</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.675222784122184</v>
+        <v>3.675222784122212</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>1.695612745310981</v>
       </c>
       <c r="I19">
-        <v>0.36926065970016</v>
+        <v>0.3692606597001173</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9768024705342384</v>
+        <v>0.9768024705342242</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.58208668608404</v>
+        <v>5.582086686084097</v>
       </c>
       <c r="C20">
         <v>1.679176706311807</v>
       </c>
       <c r="D20">
-        <v>0.004163849815460474</v>
+        <v>0.004163849815594922</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.761141854285867</v>
+        <v>1.761141854285853</v>
       </c>
       <c r="I20">
         <v>0.3865065904405895</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.021726831123928</v>
+        <v>1.021726831123942</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.390672135854686</v>
+        <v>6.390672135854743</v>
       </c>
       <c r="C21">
-        <v>1.927179941508427</v>
+        <v>1.927179941507916</v>
       </c>
       <c r="D21">
-        <v>0.003424349639655322</v>
+        <v>0.00342434963962357</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.373655852655105</v>
+        <v>4.373655852655162</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.992348590897606</v>
+        <v>1.992348590897649</v>
       </c>
       <c r="I21">
         <v>0.4467524098704132</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.17760497507615</v>
+        <v>1.177604975076193</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.936233685252944</v>
+        <v>6.936233685252887</v>
       </c>
       <c r="C22">
-        <v>2.09519710558277</v>
+        <v>2.095197105582713</v>
       </c>
       <c r="D22">
-        <v>0.002973538269303688</v>
+        <v>0.002973538269547715</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.748182442344557</v>
+        <v>4.748182442344472</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.153135520281808</v>
+        <v>2.153135520281765</v>
       </c>
       <c r="I22">
         <v>0.4881828561580406</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.283902689245323</v>
+        <v>1.283902689245352</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>6.643290356400371</v>
       </c>
       <c r="C23">
-        <v>2.004909258628061</v>
+        <v>2.004909258627663</v>
       </c>
       <c r="D23">
-        <v>0.00321078472903058</v>
+        <v>0.003210784729013039</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.546300280208385</v>
+        <v>4.54630028020847</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>2.066332115933648</v>
       </c>
       <c r="I23">
-        <v>0.4658582946267558</v>
+        <v>0.4658582946267344</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.22671235838888</v>
+        <v>1.226712358388937</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>5.56911788880177</v>
       </c>
       <c r="C24">
-        <v>1.675208732769136</v>
+        <v>1.675208732768851</v>
       </c>
       <c r="D24">
-        <v>0.004176406610192807</v>
+        <v>0.004176406610047922</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.757505138837672</v>
+        <v>1.757505138837701</v>
       </c>
       <c r="I24">
-        <v>0.3855516488160617</v>
+        <v>0.3855516488160262</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.019242926493519</v>
+        <v>1.019242926493533</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.466520558323282</v>
+        <v>4.466520558323396</v>
       </c>
       <c r="C25">
-        <v>1.338946254931159</v>
+        <v>1.338946254931443</v>
       </c>
       <c r="D25">
-        <v>0.005325303593347819</v>
+        <v>0.00532530359333877</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.105578024720671</v>
+        <v>3.105578024720728</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.457115670499164</v>
+        <v>1.457115670499149</v>
       </c>
       <c r="I25">
-        <v>0.3056935878398193</v>
+        <v>0.3056935878398122</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8099455914679652</v>
+        <v>0.809945591467951</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.687321188944281</v>
+        <v>3.687321188944395</v>
       </c>
       <c r="C2">
-        <v>1.102574280346687</v>
+        <v>1.10257428034663</v>
       </c>
       <c r="D2">
-        <v>0.006236592590103118</v>
+        <v>0.006236592590204815</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>1.256205540017916</v>
       </c>
       <c r="I2">
-        <v>0.2508929229868997</v>
+        <v>0.2508929229869281</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6643194013700153</v>
+        <v>0.6643194013700437</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.173450706309154</v>
+        <v>3.173450706309097</v>
       </c>
       <c r="C3">
-        <v>0.9472367372632107</v>
+        <v>0.9472367372637791</v>
       </c>
       <c r="D3">
-        <v>0.006885012419393766</v>
+        <v>0.006885012419390713</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>1.129568646305486</v>
       </c>
       <c r="I3">
-        <v>0.2155386733574929</v>
+        <v>0.2155386733575142</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5693567728001483</v>
+        <v>0.5693567728001625</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.863244468668995</v>
+        <v>2.863244468669222</v>
       </c>
       <c r="C4">
-        <v>0.8536658676440538</v>
+        <v>0.8536658676439686</v>
       </c>
       <c r="D4">
-        <v>0.007295771843336574</v>
+        <v>0.007295771843430887</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.122522887079796</v>
+        <v>2.122522887079811</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>1.055649240855701</v>
       </c>
       <c r="I4">
-        <v>0.1945180312639216</v>
+        <v>0.1945180312639074</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5124632899322634</v>
+        <v>0.5124632899322563</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.737947966409138</v>
+        <v>2.737947966409308</v>
       </c>
       <c r="C5">
-        <v>0.8159127557175339</v>
+        <v>0.8159127557174202</v>
       </c>
       <c r="D5">
-        <v>0.007466006782488877</v>
+        <v>0.007466006782482437</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>1.026377944344119</v>
       </c>
       <c r="I5">
-        <v>0.1860995138220467</v>
+        <v>0.1860995138220574</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4895788035220576</v>
+        <v>0.4895788035220505</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.717203916321409</v>
+        <v>2.717203916321466</v>
       </c>
       <c r="C6">
-        <v>0.8096646135138599</v>
+        <v>0.8096646135137178</v>
       </c>
       <c r="D6">
-        <v>0.007494437432221002</v>
+        <v>0.00749443743210304</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>1.021565805891058</v>
       </c>
       <c r="I6">
-        <v>0.1847098540536223</v>
+        <v>0.184709854053601</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4857954682248646</v>
+        <v>0.4857954682248931</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>2.861550436012521</v>
       </c>
       <c r="C7">
-        <v>0.8531552816099861</v>
+        <v>0.8531552816102987</v>
       </c>
       <c r="D7">
-        <v>0.007298056562373589</v>
+        <v>0.007298056562380306</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.121527170164853</v>
+        <v>2.121527170164839</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.055251171450749</v>
+        <v>1.05525117145072</v>
       </c>
       <c r="I7">
-        <v>0.1944039299772093</v>
+        <v>0.1944039299772129</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>3.508895307208377</v>
       </c>
       <c r="C8">
-        <v>1.048589979187142</v>
+        <v>1.048589979187255</v>
       </c>
       <c r="D8">
-        <v>0.006457333950967148</v>
+        <v>0.00645733395073611</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.509099924500902</v>
+        <v>2.509099924500873</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6312473995711585</v>
+        <v>0.6312473995711443</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.831939348967921</v>
+        <v>4.831939348968035</v>
       </c>
       <c r="C9">
         <v>1.45015272840476</v>
       </c>
       <c r="D9">
-        <v>0.004926600554712168</v>
+        <v>0.00492660055492733</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.339650519549366</v>
+        <v>3.339650519549394</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.554687329848093</v>
+        <v>1.554687329848107</v>
       </c>
       <c r="I9">
-        <v>0.3318657916961669</v>
+        <v>0.3318657916961527</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8788959735847897</v>
+        <v>0.8788959735848465</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.855407864837161</v>
+        <v>5.855407864836934</v>
       </c>
       <c r="C10">
-        <v>1.762873747564697</v>
+        <v>1.76287374756464</v>
       </c>
       <c r="D10">
-        <v>0.003904333322257703</v>
+        <v>0.00390433332233453</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.012384582905128</v>
+        <v>4.012384582905185</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>1.838320452501449</v>
       </c>
       <c r="I10">
-        <v>0.4067157460241972</v>
+        <v>0.4067157460242328</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.07419489977319</v>
+        <v>1.074194899773204</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.337343817676697</v>
+        <v>6.337343817676526</v>
       </c>
       <c r="C11">
         <v>1.910786353989806</v>
       </c>
       <c r="D11">
-        <v>0.003470495998243228</v>
+        <v>0.003470495998242784</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.976834980782769</v>
+        <v>1.976834980782783</v>
       </c>
       <c r="I11">
-        <v>0.4427363529044541</v>
+        <v>0.4427363529044612</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.167263145814943</v>
+        <v>1.1672631458149</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.522721633527397</v>
+        <v>6.52272163352751</v>
       </c>
       <c r="C12">
-        <v>1.967795959276714</v>
+        <v>1.967795959277169</v>
       </c>
       <c r="D12">
-        <v>0.003311677604608487</v>
+        <v>0.00331167760454143</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.463732457806344</v>
+        <v>4.463732457806316</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>2.030919994435692</v>
       </c>
       <c r="I12">
-        <v>0.4567226852947073</v>
+        <v>0.4567226852946789</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.203250291442529</v>
+        <v>1.203250291442501</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.482659668417</v>
+        <v>6.482659668416943</v>
       </c>
       <c r="C13">
-        <v>1.955470181436965</v>
+        <v>1.955470181437249</v>
       </c>
       <c r="D13">
-        <v>0.003345620787241099</v>
+        <v>0.003345620787026826</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.436365290963295</v>
+        <v>4.436365290963266</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>2.019194385090501</v>
       </c>
       <c r="I13">
-        <v>0.4536939495052579</v>
+        <v>0.4536939495052437</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.195464247248651</v>
+        <v>1.195464247248637</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.352533880143994</v>
+        <v>6.352533880143881</v>
       </c>
       <c r="C14">
-        <v>1.915455371256712</v>
+        <v>1.915455371256655</v>
       </c>
       <c r="D14">
-        <v>0.003457313928568961</v>
+        <v>0.003457313928573624</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.347709344260096</v>
+        <v>4.347709344260124</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>1.981250149070036</v>
       </c>
       <c r="I14">
-        <v>0.4438796759381134</v>
+        <v>0.4438796759380921</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.170208035222117</v>
+        <v>1.170208035222146</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.273220380765679</v>
+        <v>6.273220380765792</v>
       </c>
       <c r="C15">
-        <v>1.891081261768818</v>
+        <v>1.891081261769159</v>
       </c>
       <c r="D15">
-        <v>0.00352647404547235</v>
+        <v>0.003526474045476347</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.293850107422571</v>
+        <v>4.2938501074226</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.958229645172125</v>
+        <v>1.958229645172111</v>
       </c>
       <c r="I15">
-        <v>0.4379152990950246</v>
+        <v>0.4379152990950672</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>5.824284195244559</v>
       </c>
       <c r="C16">
-        <v>1.753336136744224</v>
+        <v>1.75333613674394</v>
       </c>
       <c r="D16">
-        <v>0.003933392202376984</v>
+        <v>0.003933392202425834</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.991571604292062</v>
+        <v>3.991571604292119</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.829480933790961</v>
+        <v>1.829480933790975</v>
       </c>
       <c r="I16">
         <v>0.4044064575439705</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.068208783710844</v>
+        <v>1.068208783710858</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.553410785584617</v>
+        <v>5.553410785584674</v>
       </c>
       <c r="C17">
-        <v>1.67040334474359</v>
+        <v>1.670403344744045</v>
       </c>
       <c r="D17">
-        <v>0.004191644242576897</v>
+        <v>0.004191644242219184</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.753103647590109</v>
+        <v>1.753103647590123</v>
       </c>
       <c r="I17">
-        <v>0.3843955569921818</v>
+        <v>0.3843955569921746</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.39911427625924</v>
+        <v>5.399114276259297</v>
       </c>
       <c r="C18">
-        <v>1.623221881571965</v>
+        <v>1.623221881571681</v>
       </c>
       <c r="D18">
-        <v>0.004343050293619033</v>
+        <v>0.004343050293722839</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.710047885132155</v>
+        <v>1.710047885132141</v>
       </c>
       <c r="I18">
-        <v>0.3730669415286485</v>
+        <v>0.3730669415286414</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9867296331304942</v>
+        <v>0.98672963313048</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.3471157006976</v>
+        <v>5.347115700697486</v>
       </c>
       <c r="C19">
         <v>1.607331144769887</v>
       </c>
       <c r="D19">
-        <v>0.004394779688414396</v>
+        <v>0.004394779688554395</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.675222784122212</v>
+        <v>3.675222784122184</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>1.695612745310981</v>
       </c>
       <c r="I19">
-        <v>0.3692606597001173</v>
+        <v>0.36926065970016</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9768024705342242</v>
+        <v>0.9768024705342384</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.582086686084097</v>
+        <v>5.58208668608404</v>
       </c>
       <c r="C20">
         <v>1.679176706311807</v>
       </c>
       <c r="D20">
-        <v>0.004163849815594922</v>
+        <v>0.004163849815460474</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.761141854285853</v>
+        <v>1.761141854285867</v>
       </c>
       <c r="I20">
         <v>0.3865065904405895</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.021726831123942</v>
+        <v>1.021726831123928</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.390672135854743</v>
+        <v>6.390672135854686</v>
       </c>
       <c r="C21">
-        <v>1.927179941507916</v>
+        <v>1.927179941508427</v>
       </c>
       <c r="D21">
-        <v>0.00342434963962357</v>
+        <v>0.003424349639655322</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.373655852655162</v>
+        <v>4.373655852655105</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.992348590897649</v>
+        <v>1.992348590897606</v>
       </c>
       <c r="I21">
         <v>0.4467524098704132</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.177604975076193</v>
+        <v>1.17760497507615</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.936233685252887</v>
+        <v>6.936233685252944</v>
       </c>
       <c r="C22">
-        <v>2.095197105582713</v>
+        <v>2.09519710558277</v>
       </c>
       <c r="D22">
-        <v>0.002973538269547715</v>
+        <v>0.002973538269303688</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.748182442344472</v>
+        <v>4.748182442344557</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.153135520281765</v>
+        <v>2.153135520281808</v>
       </c>
       <c r="I22">
         <v>0.4881828561580406</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.283902689245352</v>
+        <v>1.283902689245323</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>6.643290356400371</v>
       </c>
       <c r="C23">
-        <v>2.004909258627663</v>
+        <v>2.004909258628061</v>
       </c>
       <c r="D23">
-        <v>0.003210784729013039</v>
+        <v>0.00321078472903058</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.54630028020847</v>
+        <v>4.546300280208385</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>2.066332115933648</v>
       </c>
       <c r="I23">
-        <v>0.4658582946267344</v>
+        <v>0.4658582946267558</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.226712358388937</v>
+        <v>1.22671235838888</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>5.56911788880177</v>
       </c>
       <c r="C24">
-        <v>1.675208732768851</v>
+        <v>1.675208732769136</v>
       </c>
       <c r="D24">
-        <v>0.004176406610047922</v>
+        <v>0.004176406610192807</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.757505138837701</v>
+        <v>1.757505138837672</v>
       </c>
       <c r="I24">
-        <v>0.3855516488160262</v>
+        <v>0.3855516488160617</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.019242926493533</v>
+        <v>1.019242926493519</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.466520558323396</v>
+        <v>4.466520558323282</v>
       </c>
       <c r="C25">
-        <v>1.338946254931443</v>
+        <v>1.338946254931159</v>
       </c>
       <c r="D25">
-        <v>0.00532530359333877</v>
+        <v>0.005325303593347819</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.105578024720728</v>
+        <v>3.105578024720671</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.457115670499149</v>
+        <v>1.457115670499164</v>
       </c>
       <c r="I25">
-        <v>0.3056935878398122</v>
+        <v>0.3056935878398193</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.809945591467951</v>
+        <v>0.8099455914679652</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.687321188944395</v>
+        <v>3.659705981228171</v>
       </c>
       <c r="C2">
-        <v>1.10257428034663</v>
+        <v>1.088619017880319</v>
       </c>
       <c r="D2">
-        <v>0.006236592590204815</v>
+        <v>0.007861635335810496</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.618259657185206</v>
+        <v>2.625839360305122</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007681072811908454</v>
       </c>
       <c r="H2">
-        <v>1.256205540017916</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2508929229869281</v>
+        <v>1.266170315483919</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2499331644207956</v>
       </c>
       <c r="K2">
-        <v>0.6643194013700437</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.6613081305601938</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.173450706309097</v>
+        <v>3.150051512849814</v>
       </c>
       <c r="C3">
-        <v>0.9472367372637791</v>
+        <v>0.9350791653833426</v>
       </c>
       <c r="D3">
-        <v>0.006885012419390713</v>
+        <v>0.008594966214954661</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.306540930134389</v>
+        <v>2.318556112257198</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007782322819582888</v>
       </c>
       <c r="H3">
-        <v>1.129568646305486</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2155386733575142</v>
+        <v>1.141788850447284</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2147142315393822</v>
       </c>
       <c r="K3">
-        <v>0.5693567728001625</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.566848521783065</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.863244468669222</v>
+        <v>2.842414852173135</v>
       </c>
       <c r="C4">
-        <v>0.8536658676439686</v>
+        <v>0.8426069648044461</v>
       </c>
       <c r="D4">
-        <v>0.007295771843430887</v>
+        <v>0.009057867409643261</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.122522887079811</v>
+        <v>2.137230770526571</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007845762554070534</v>
       </c>
       <c r="H4">
-        <v>1.055649240855701</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1945180312639074</v>
+        <v>1.06923944866584</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1937698148192624</v>
       </c>
       <c r="K4">
-        <v>0.5124632899322563</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.5102507563866965</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.737947966409308</v>
+        <v>2.718163752949238</v>
       </c>
       <c r="C5">
-        <v>0.8159127557174202</v>
+        <v>0.8053015311334377</v>
       </c>
       <c r="D5">
-        <v>0.007466006782482437</v>
+        <v>0.009249384317322307</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.049157337820063</v>
+        <v>2.064958324284248</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007871963634717982</v>
       </c>
       <c r="H5">
-        <v>1.026377944344119</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1860995138220574</v>
+        <v>1.040524479752037</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1853809207370816</v>
       </c>
       <c r="K5">
-        <v>0.4895788035220505</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4874841452993195</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.717203916321466</v>
+        <v>2.697593268975879</v>
       </c>
       <c r="C6">
-        <v>0.8096646135137178</v>
+        <v>0.7991277564983932</v>
       </c>
       <c r="D6">
-        <v>0.00749443743210304</v>
+        <v>0.009281351730271004</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.037066757075593</v>
+        <v>2.053049093020164</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007876336169935775</v>
       </c>
       <c r="H6">
-        <v>1.021565805891058</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.184709854053601</v>
+        <v>1.035804647919505</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1839961004849258</v>
       </c>
       <c r="K6">
-        <v>0.4857954682248931</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4837202418346394</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.861550436012521</v>
+        <v>2.840734921407488</v>
       </c>
       <c r="C7">
-        <v>0.8531552816102987</v>
+        <v>0.8421024149465381</v>
       </c>
       <c r="D7">
-        <v>0.007298056562380306</v>
+        <v>0.009060438968104684</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.121527170164839</v>
+        <v>2.136249808259223</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000784611446312546</v>
       </c>
       <c r="H7">
-        <v>1.05525117145072</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1944039299772129</v>
+        <v>1.068848887860213</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1936561185258228</v>
       </c>
       <c r="K7">
-        <v>0.5121535156808719</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.5099425816873477</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.508895307208377</v>
+        <v>3.482739738901785</v>
       </c>
       <c r="C8">
-        <v>1.048589979187255</v>
+        <v>1.035256433591968</v>
       </c>
       <c r="D8">
-        <v>0.00645733395073611</v>
+        <v>0.008111673509314493</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.509099924500873</v>
+        <v>2.518217638403058</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000771573831465619</v>
       </c>
       <c r="H8">
-        <v>1.211672948215167</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2385441004088733</v>
+        <v>1.222419622845791</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2376326102358988</v>
       </c>
       <c r="K8">
-        <v>0.6312473995711443</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.628412736425048</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.831939348968035</v>
+        <v>4.794992938344649</v>
       </c>
       <c r="C9">
-        <v>1.45015272840476</v>
+        <v>1.432238368745345</v>
       </c>
       <c r="D9">
-        <v>0.00492660055492733</v>
+        <v>0.006367407058830765</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.339650519549394</v>
+        <v>3.337342388084693</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007468667795443442</v>
       </c>
       <c r="H9">
-        <v>1.554687329848107</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3318657916961527</v>
+        <v>1.559629586514006</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3305629500122222</v>
       </c>
       <c r="K9">
-        <v>0.8788959735848465</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.874696693489426</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.855407864836934</v>
+        <v>5.810046088964725</v>
       </c>
       <c r="C10">
-        <v>1.76287374756464</v>
+        <v>1.741410008444461</v>
       </c>
       <c r="D10">
-        <v>0.00390433332233453</v>
+        <v>0.005184369594698035</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.012384582905185</v>
+        <v>4.001085407211065</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007289958223201958</v>
       </c>
       <c r="H10">
-        <v>1.838320452501449</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4067157460242328</v>
+        <v>1.838702096027276</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.405053805954438</v>
       </c>
       <c r="K10">
-        <v>1.074194899773204</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.068840426458095</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.337343817676526</v>
+        <v>6.28795939320753</v>
       </c>
       <c r="C11">
-        <v>1.910786353989806</v>
+        <v>1.88763263709842</v>
       </c>
       <c r="D11">
-        <v>0.003470495998242784</v>
+        <v>0.004675727165011301</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.337383801748416</v>
+        <v>4.321765381979731</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000720860592211822</v>
       </c>
       <c r="H11">
-        <v>1.976834980782783</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4427363529044612</v>
+        <v>1.975027924367055</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.440886517632876</v>
       </c>
       <c r="K11">
-        <v>1.1672631458149</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.161329429693296</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.52272163352751</v>
+        <v>6.471776121886421</v>
       </c>
       <c r="C12">
-        <v>1.967795959277169</v>
+        <v>1.943987538812962</v>
       </c>
       <c r="D12">
-        <v>0.00331167760454143</v>
+        <v>0.004488254696241034</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.463732457806316</v>
+        <v>4.446434472012726</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007177724168941078</v>
       </c>
       <c r="H12">
-        <v>2.030919994435692</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4567226852946789</v>
+        <v>2.028262238679758</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4547971372510844</v>
       </c>
       <c r="K12">
-        <v>1.203250291442501</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.197087160979777</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.482659668416943</v>
+        <v>6.432052230777742</v>
       </c>
       <c r="C13">
-        <v>1.955470181437249</v>
+        <v>1.931803492269239</v>
       </c>
       <c r="D13">
-        <v>0.003345620787026826</v>
+        <v>0.004528385182852812</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.436365290963266</v>
+        <v>4.419431191447643</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007184379669426133</v>
       </c>
       <c r="H13">
-        <v>2.019194385090501</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4536939495052437</v>
+        <v>2.016720918844015</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4517849301193095</v>
       </c>
       <c r="K13">
-        <v>1.195464247248637</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.189351017506056</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.352533880143881</v>
+        <v>6.303021847256957</v>
       </c>
       <c r="C14">
-        <v>1.915455371256655</v>
+        <v>1.89224811308128</v>
       </c>
       <c r="D14">
-        <v>0.003457313928573624</v>
+        <v>0.004660194827538433</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.347709344260124</v>
+        <v>4.331953699963975</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007206067203809928</v>
       </c>
       <c r="H14">
-        <v>1.981250149070036</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4438796759380921</v>
+        <v>1.979373580244101</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4420237101278062</v>
       </c>
       <c r="K14">
-        <v>1.170208035222146</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.164255662592169</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.273220380765792</v>
+        <v>6.224374056650333</v>
       </c>
       <c r="C15">
-        <v>1.891081261769159</v>
+        <v>1.86815336470778</v>
       </c>
       <c r="D15">
-        <v>0.003526474045476347</v>
+        <v>0.004741631392833234</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.2938501074226</v>
+        <v>4.27881020058598</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007219339413835072</v>
       </c>
       <c r="H15">
-        <v>1.958229645172111</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4379152990950672</v>
+        <v>1.956715656176996</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4360912004436344</v>
       </c>
       <c r="K15">
-        <v>1.154839309546134</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.148984074771505</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.824284195244559</v>
+        <v>5.779180611558729</v>
       </c>
       <c r="C16">
-        <v>1.75333613674394</v>
+        <v>1.73198101321475</v>
       </c>
       <c r="D16">
-        <v>0.003933392202425834</v>
+        <v>0.005218276555437384</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.991571604292119</v>
+        <v>3.980549210981309</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007295268176697986</v>
       </c>
       <c r="H16">
-        <v>1.829480933790975</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4044064575439705</v>
+        <v>1.830002880808294</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4027562213220222</v>
       </c>
       <c r="K16">
-        <v>1.068208783710858</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.062890898186794</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.553410785584674</v>
+        <v>5.510547203246006</v>
       </c>
       <c r="C17">
-        <v>1.670403344744045</v>
+        <v>1.64999128138578</v>
       </c>
       <c r="D17">
-        <v>0.004191644242219184</v>
+        <v>0.005518819979346556</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.811352796895989</v>
+        <v>3.802729321070245</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007341789411948271</v>
       </c>
       <c r="H17">
-        <v>1.753103647590123</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3843955569921746</v>
+        <v>1.754841872513524</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3828450468294093</v>
       </c>
       <c r="K17">
-        <v>1.016235241851689</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.011231765169342</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.399114276259297</v>
+        <v>5.357521494907985</v>
       </c>
       <c r="C18">
-        <v>1.623221881571681</v>
+        <v>1.603345432944877</v>
       </c>
       <c r="D18">
-        <v>0.004343050293722839</v>
+        <v>0.005694399895973534</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.709442837794455</v>
+        <v>3.702178382911598</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007368546556541838</v>
       </c>
       <c r="H18">
-        <v>1.710047885132141</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3730669415286414</v>
+        <v>1.71247534287275</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3715715574973544</v>
       </c>
       <c r="K18">
-        <v>0.98672963313048</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9819021096881926</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.347115700697486</v>
+        <v>5.305950430226744</v>
       </c>
       <c r="C19">
-        <v>1.607331144769887</v>
+        <v>1.58763498047449</v>
       </c>
       <c r="D19">
-        <v>0.004394779688554395</v>
+        <v>0.005754290561477582</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.675222784122184</v>
+        <v>3.668415194635486</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007377607813230652</v>
       </c>
       <c r="H19">
-        <v>1.695612745310981</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.36926065970016</v>
+        <v>1.698271935523209</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3677835837261796</v>
       </c>
       <c r="K19">
-        <v>0.9768024705342384</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9720337439055129</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.58208668608404</v>
+        <v>5.538986535480433</v>
       </c>
       <c r="C20">
-        <v>1.679176706311807</v>
+        <v>1.658664982486869</v>
       </c>
       <c r="D20">
-        <v>0.004163849815460474</v>
+        <v>0.005486539762640574</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.830352908006972</v>
+        <v>3.821476284278248</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007336837662136375</v>
       </c>
       <c r="H20">
-        <v>1.761141854285867</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3865065904405895</v>
+        <v>1.762751709726558</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.384945702012395</v>
       </c>
       <c r="K20">
-        <v>1.021726831123928</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.016690405753764</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.390672135854686</v>
+        <v>6.340839473216988</v>
       </c>
       <c r="C21">
-        <v>1.927179941508427</v>
+        <v>1.903838173758572</v>
       </c>
       <c r="D21">
-        <v>0.003424349639655322</v>
+        <v>0.004621331497497216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.373655852655105</v>
+        <v>4.357555362651397</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007199699695361605</v>
       </c>
       <c r="H21">
-        <v>1.992348590897606</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4467524098704132</v>
+        <v>1.990297343621791</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4448809944484822</v>
       </c>
       <c r="K21">
-        <v>1.17760497507615</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.171605650004693</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.936233685252944</v>
+        <v>6.88177400332961</v>
       </c>
       <c r="C22">
-        <v>2.09519710558277</v>
+        <v>2.069917171835584</v>
       </c>
       <c r="D22">
-        <v>0.002973538269303688</v>
+        <v>0.004086401214129953</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.748182442344557</v>
+        <v>4.727097119157634</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007109591608800989</v>
       </c>
       <c r="H22">
-        <v>2.153135520281808</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4881828561580406</v>
+        <v>2.148560293463831</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4860811906053399</v>
       </c>
       <c r="K22">
-        <v>1.283902689245323</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.277213759193046</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.643290356400371</v>
+        <v>6.591324940998732</v>
       </c>
       <c r="C23">
-        <v>2.004909258628061</v>
+        <v>1.980673440595922</v>
       </c>
       <c r="D23">
-        <v>0.00321078472903058</v>
+        <v>0.004368757022671588</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.546300280208385</v>
+        <v>4.527904013663317</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007157753656257472</v>
       </c>
       <c r="H23">
-        <v>2.066332115933648</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4658582946267558</v>
+        <v>2.063118200964539</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.463882441323122</v>
       </c>
       <c r="K23">
-        <v>1.22671235838888</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.220397958955942</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.56911788880177</v>
+        <v>5.526124742979789</v>
       </c>
       <c r="C24">
-        <v>1.675208732769136</v>
+        <v>1.654742085606472</v>
       </c>
       <c r="D24">
-        <v>0.004176406610192807</v>
+        <v>0.005501125012618124</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.821757702061234</v>
+        <v>3.812995588472006</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007339076307909223</v>
       </c>
       <c r="H24">
-        <v>1.757505138837672</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3855516488160617</v>
+        <v>1.75917306094405</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3839954592055577</v>
       </c>
       <c r="K24">
-        <v>1.019242926493519</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.014221412025535</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.466520558323282</v>
+        <v>4.432554006150781</v>
       </c>
       <c r="C25">
-        <v>1.338946254931159</v>
+        <v>1.32229341824285</v>
       </c>
       <c r="D25">
-        <v>0.005325303593347819</v>
+        <v>0.006824320365500292</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.105578024720671</v>
+        <v>3.106437505600553</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007534815527726613</v>
       </c>
       <c r="H25">
-        <v>1.457115670499164</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3056935878398193</v>
+        <v>1.463666113348964</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3045067029000705</v>
       </c>
       <c r="K25">
-        <v>0.8099455914679652</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.8061365583605209</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.659705981228171</v>
+        <v>3.762484366336651</v>
       </c>
       <c r="C2">
-        <v>1.088619017880319</v>
+        <v>0.4556201489994862</v>
       </c>
       <c r="D2">
-        <v>0.007861635335810496</v>
+        <v>0.05439421831245284</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.625839360305122</v>
+        <v>2.36782483137462</v>
       </c>
       <c r="G2">
-        <v>0.0007681072811908454</v>
+        <v>0.000797103278078809</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.266170315483919</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2499331644207956</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.875106943056835</v>
       </c>
       <c r="L2">
-        <v>0.6613081305601938</v>
+        <v>0.4047790705905925</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.370406997774523</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.150051512849814</v>
+        <v>3.265372160298455</v>
       </c>
       <c r="C3">
-        <v>0.9350791653833426</v>
+        <v>0.3943094092321076</v>
       </c>
       <c r="D3">
-        <v>0.008594966214954661</v>
+        <v>0.05545161917434882</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.318556112257198</v>
+        <v>2.137473957477226</v>
       </c>
       <c r="G3">
-        <v>0.0007782322819582888</v>
+        <v>0.0008063374028067663</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.141788850447284</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2147142315393822</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7554918506452992</v>
       </c>
       <c r="L3">
-        <v>0.566848521783065</v>
+        <v>0.3553520144290161</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.383755654432093</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.842414852173135</v>
+        <v>2.966341655888016</v>
       </c>
       <c r="C4">
-        <v>0.8426069648044461</v>
+        <v>0.3572052442546862</v>
       </c>
       <c r="D4">
-        <v>0.009057867409643261</v>
+        <v>0.05620179851455376</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.137230770526571</v>
+        <v>2.001219172663539</v>
       </c>
       <c r="G4">
-        <v>0.0007845762554070534</v>
+        <v>0.0008121481476130209</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.06923944866584</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1937698148192624</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.683435729636372</v>
       </c>
       <c r="L4">
-        <v>0.5102507563866965</v>
+        <v>0.3257393305230636</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.394123378360234</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.718163752949238</v>
+        <v>2.845840376693559</v>
       </c>
       <c r="C5">
-        <v>0.8053015311334377</v>
+        <v>0.3421963289154064</v>
       </c>
       <c r="D5">
-        <v>0.009249384317322307</v>
+        <v>0.05653102154277079</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.064958324284248</v>
+        <v>1.946859861802295</v>
       </c>
       <c r="G5">
-        <v>0.0007871963634717982</v>
+        <v>0.000814553546955532</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.040524479752037</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1853809207370816</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6543728788811407</v>
       </c>
       <c r="L5">
-        <v>0.4874841452993195</v>
+        <v>0.3138351490895559</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.39885758149002</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.697593268975879</v>
+        <v>2.825907556741015</v>
       </c>
       <c r="C6">
-        <v>0.7991277564983932</v>
+        <v>0.3397101563873832</v>
       </c>
       <c r="D6">
-        <v>0.009281351730271004</v>
+        <v>0.05658705852699697</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.053049093020164</v>
+        <v>1.937900157726503</v>
       </c>
       <c r="G6">
-        <v>0.0007876336169935775</v>
+        <v>0.0008149552811469836</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.035804647919505</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1839961004849258</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6495638373321313</v>
       </c>
       <c r="L6">
-        <v>0.4837202418346394</v>
+        <v>0.3118677270179688</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.399673438882601</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.840734921407488</v>
+        <v>2.964711297288034</v>
       </c>
       <c r="C7">
-        <v>0.8421024149465381</v>
+        <v>0.3570024089285369</v>
       </c>
       <c r="D7">
-        <v>0.009060438968104684</v>
+        <v>0.05620614562169735</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.136249808259223</v>
+        <v>2.000481516992338</v>
       </c>
       <c r="G7">
-        <v>0.000784611446312546</v>
+        <v>0.0008121804333665513</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.068848887860213</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1936561185258228</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6830426215597143</v>
       </c>
       <c r="L7">
-        <v>0.5099425816873477</v>
+        <v>0.3255781530527884</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.394185209631218</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.482739738901785</v>
+        <v>3.58966564505721</v>
       </c>
       <c r="C8">
-        <v>1.035256433591968</v>
+        <v>0.4343523295781893</v>
       </c>
       <c r="D8">
-        <v>0.008111673509314493</v>
+        <v>0.05473667814038308</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.518217638403058</v>
+        <v>2.287237693797763</v>
       </c>
       <c r="G8">
-        <v>0.000771573831465619</v>
+        <v>0.0008002592271828234</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.222419622845791</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2376326102358988</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8335449716289389</v>
       </c>
       <c r="L8">
-        <v>0.628412736425048</v>
+        <v>0.387570177235645</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.374535660689745</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.794992938344649</v>
+        <v>4.8746361758175</v>
       </c>
       <c r="C9">
-        <v>1.432238368745345</v>
+        <v>0.5915822749911968</v>
       </c>
       <c r="D9">
-        <v>0.006367407058830765</v>
+        <v>0.05275151043547766</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.337342388084693</v>
+        <v>2.897621208530524</v>
       </c>
       <c r="G9">
-        <v>0.0007468667795443442</v>
+        <v>0.0007778981751435511</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.559629586514006</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3305629500122222</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.142147032211625</v>
       </c>
       <c r="L9">
-        <v>0.874696693489426</v>
+        <v>0.5160738820986097</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.355091052331858</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.810046088964725</v>
+        <v>5.871216174285507</v>
       </c>
       <c r="C10">
-        <v>1.741410008444461</v>
+        <v>0.7124855510968473</v>
       </c>
       <c r="D10">
-        <v>0.005184369594698035</v>
+        <v>0.05199431038224134</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.001085407211065</v>
+        <v>3.386374386373461</v>
       </c>
       <c r="G10">
-        <v>0.0007289958223201958</v>
+        <v>0.0007619283329842089</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.838702096027276</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.405053805954438</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.380986504163758</v>
       </c>
       <c r="L10">
-        <v>1.068840426458095</v>
+        <v>0.6164557228608061</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.355387584736533</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.28795939320753</v>
+        <v>6.340274675863952</v>
       </c>
       <c r="C11">
-        <v>1.88763263709842</v>
+        <v>0.7691898053402895</v>
       </c>
       <c r="D11">
-        <v>0.004675727165011301</v>
+        <v>0.05184426951250742</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.321765381979731</v>
+        <v>3.620373843139703</v>
       </c>
       <c r="G11">
-        <v>0.000720860592211822</v>
+        <v>0.0007547208710969264</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.975027924367055</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.440886517632876</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.49329862414686</v>
       </c>
       <c r="L11">
-        <v>1.161329429693296</v>
+        <v>0.6638751740411379</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.359469116363357</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.471776121886421</v>
+        <v>6.520574479279105</v>
       </c>
       <c r="C12">
-        <v>1.943987538812962</v>
+        <v>0.7909600687474097</v>
       </c>
       <c r="D12">
-        <v>0.004488254696241034</v>
+        <v>0.05181968917155189</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.446434472012726</v>
+        <v>3.710945959446605</v>
       </c>
       <c r="G12">
-        <v>0.0007177724168941078</v>
+        <v>0.0007519957377576422</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.028262238679758</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4547971372510844</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.536456081749634</v>
       </c>
       <c r="L12">
-        <v>1.197087160979777</v>
+        <v>0.6821287909592115</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.361659602573013</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.432052230777742</v>
+        <v>6.481617257442451</v>
       </c>
       <c r="C13">
-        <v>1.931803492269239</v>
+        <v>0.7862572925363054</v>
       </c>
       <c r="D13">
-        <v>0.004528385182852812</v>
+        <v>0.05182347302572765</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.419431191447643</v>
+        <v>3.691347393931409</v>
       </c>
       <c r="G13">
-        <v>0.0007184379669426133</v>
+        <v>0.0007525825295254619</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.016720918844015</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4517849301193095</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.527131684438032</v>
       </c>
       <c r="L13">
-        <v>1.189351017506056</v>
+        <v>0.678183563237198</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.361157798489714</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.303021847256957</v>
+        <v>6.355051763554286</v>
       </c>
       <c r="C14">
-        <v>1.89224811308128</v>
+        <v>0.7709745636840069</v>
       </c>
       <c r="D14">
-        <v>0.004660194827538433</v>
+        <v>0.05184157401470202</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.331953699963975</v>
+        <v>3.627784168219648</v>
       </c>
       <c r="G14">
-        <v>0.0007206067203809928</v>
+        <v>0.0007544966145412487</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.979373580244101</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4420237101278062</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.49683601120546</v>
       </c>
       <c r="L14">
-        <v>1.164255662592169</v>
+        <v>0.6653706812452072</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.35963591817395</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.224374056650333</v>
+        <v>6.277888936509612</v>
       </c>
       <c r="C15">
-        <v>1.86815336470778</v>
+        <v>0.7616539041548265</v>
       </c>
       <c r="D15">
-        <v>0.004741631392833234</v>
+        <v>0.0518569992861444</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.27881020058598</v>
+        <v>3.589114493137203</v>
       </c>
       <c r="G15">
-        <v>0.0007219339413835072</v>
+        <v>0.0007556694597834479</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.956715656176996</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4360912004436344</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.47836397505823</v>
       </c>
       <c r="L15">
-        <v>1.148984074771505</v>
+        <v>0.6575625192757997</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.358790207624423</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.779180611558729</v>
+        <v>5.840912589324319</v>
       </c>
       <c r="C16">
-        <v>1.73198101321475</v>
+        <v>0.7088183993383836</v>
       </c>
       <c r="D16">
-        <v>0.005218276555437384</v>
+        <v>0.05200837750172838</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.980549210981309</v>
+        <v>3.371340024933545</v>
       </c>
       <c r="G16">
-        <v>0.0007295268176697986</v>
+        <v>0.0007624001766493874</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.830002880808294</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4027562213220222</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.373728608046363</v>
       </c>
       <c r="L16">
-        <v>1.062890898186794</v>
+        <v>0.6133957279464397</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.355206613369631</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.510547203246006</v>
+        <v>5.577144117279261</v>
       </c>
       <c r="C17">
-        <v>1.64999128138578</v>
+        <v>0.676876995661587</v>
       </c>
       <c r="D17">
-        <v>0.005518819979346556</v>
+        <v>0.0521538606549754</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.802729321070245</v>
+        <v>3.240919103387455</v>
       </c>
       <c r="G17">
-        <v>0.0007341789411948271</v>
+        <v>0.0007665412181410781</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.754841872513524</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3828450468294093</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.310543314331611</v>
       </c>
       <c r="L17">
-        <v>1.011231765169342</v>
+        <v>0.586780072121087</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.354070492423858</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.357521494907985</v>
+        <v>5.426881687411765</v>
       </c>
       <c r="C18">
-        <v>1.603345432944877</v>
+        <v>0.658662026547745</v>
       </c>
       <c r="D18">
-        <v>0.005694399895973534</v>
+        <v>0.05225554260031728</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.702178382911598</v>
+        <v>3.166982915434602</v>
       </c>
       <c r="G18">
-        <v>0.0007368546556541838</v>
+        <v>0.0007689287041437235</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.71247534287275</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3715715574973544</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.274538735539267</v>
       </c>
       <c r="L18">
-        <v>0.9819021096881926</v>
+        <v>0.5716336483677935</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.3537832365231</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.305950430226744</v>
+        <v>5.376242719983338</v>
       </c>
       <c r="C19">
-        <v>1.58763498047449</v>
+        <v>0.652520226315545</v>
       </c>
       <c r="D19">
-        <v>0.005754290561477582</v>
+        <v>0.05229294367176252</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.668415194635486</v>
+        <v>3.142126628454662</v>
       </c>
       <c r="G19">
-        <v>0.0007377607813230652</v>
+        <v>0.0007697381538701516</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.698271935523209</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3677835837261796</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.262403417969253</v>
       </c>
       <c r="L19">
-        <v>0.9720337439055129</v>
+        <v>0.5665319343370925</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.353746702541201</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.538986535480433</v>
+        <v>5.605069793163409</v>
       </c>
       <c r="C20">
-        <v>1.658664982486869</v>
+        <v>0.6802606216508877</v>
       </c>
       <c r="D20">
-        <v>0.005486539762640574</v>
+        <v>0.05213648168161455</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.821476284278248</v>
+        <v>3.254689088154635</v>
       </c>
       <c r="G20">
-        <v>0.0007336837662136375</v>
+        <v>0.0007660998380941808</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.762751709726558</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.384945702012395</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.317233840985935</v>
       </c>
       <c r="L20">
-        <v>1.016690405753764</v>
+        <v>0.5895962654191891</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.354153009546536</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.340839473216988</v>
+        <v>6.392150798139028</v>
       </c>
       <c r="C21">
-        <v>1.903838173758572</v>
+        <v>0.7754549356081668</v>
       </c>
       <c r="D21">
-        <v>0.004621331497497216</v>
+        <v>0.05183534458594607</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.357555362651397</v>
+        <v>3.646398508411096</v>
       </c>
       <c r="G21">
-        <v>0.0007199699695361605</v>
+        <v>0.0007539343233262311</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.990297343621791</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4448809944484822</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.505716682053134</v>
       </c>
       <c r="L21">
-        <v>1.171605650004693</v>
+        <v>0.669125689890663</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.360064752506261</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.88177400332961</v>
+        <v>6.922402872263035</v>
       </c>
       <c r="C22">
-        <v>2.069917171835584</v>
+        <v>0.8394351934060182</v>
       </c>
       <c r="D22">
-        <v>0.004086401214129953</v>
+        <v>0.05182899191938617</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.727097119157634</v>
+        <v>3.914001917940965</v>
       </c>
       <c r="G22">
-        <v>0.0007109591608800989</v>
+        <v>0.0007460054525264779</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.148560293463831</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4860811906053399</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.63261583588779</v>
       </c>
       <c r="L22">
-        <v>1.277213759193046</v>
+        <v>0.7228590055198083</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.367732421881428</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.591324940998732</v>
+        <v>6.637791664122858</v>
       </c>
       <c r="C23">
-        <v>1.980673440595922</v>
+        <v>0.8051066153849433</v>
       </c>
       <c r="D23">
-        <v>0.004368757022671588</v>
+        <v>0.05181333813113298</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.527904013663317</v>
+        <v>3.770009923624116</v>
       </c>
       <c r="G23">
-        <v>0.0007157753656257472</v>
+        <v>0.0007502367339501474</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.063118200964539</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.463882441323122</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.564510068443369</v>
       </c>
       <c r="L23">
-        <v>1.220397958955942</v>
+        <v>0.694003329975402</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.363263152045619</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.526124742979789</v>
+        <v>5.592440322571917</v>
       </c>
       <c r="C24">
-        <v>1.654742085606472</v>
+        <v>0.6787304254303308</v>
       </c>
       <c r="D24">
-        <v>0.005501125012618124</v>
+        <v>0.05214428283341022</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.812995588472006</v>
+        <v>3.248460445467799</v>
       </c>
       <c r="G24">
-        <v>0.0007339076307909223</v>
+        <v>0.0007662993646763297</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.75917306094405</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3839954592055577</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.314208059915856</v>
       </c>
       <c r="L24">
-        <v>1.014221412025535</v>
+        <v>0.5883225840664181</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.354114569510116</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.432554006150781</v>
+        <v>4.519097854778977</v>
       </c>
       <c r="C25">
-        <v>1.32229341824285</v>
+        <v>0.548262526219645</v>
       </c>
       <c r="D25">
-        <v>0.006824320365500292</v>
+        <v>0.05317798463792656</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.106437505600553</v>
+        <v>2.7262993801059</v>
       </c>
       <c r="G25">
-        <v>0.0007534815527726613</v>
+        <v>0.0007838540523203815</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.463666113348964</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3045067029000705</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.056847562201028</v>
       </c>
       <c r="L25">
-        <v>0.8061365583605209</v>
+        <v>0.4804008163636126</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.358026899488976</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.762484366336651</v>
+        <v>3.493286774758758</v>
       </c>
       <c r="C2">
-        <v>0.4556201489994862</v>
+        <v>0.4915250839123644</v>
       </c>
       <c r="D2">
-        <v>0.05439421831245284</v>
+        <v>0.01739065888498992</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.36782483137462</v>
+        <v>1.082697091727937</v>
       </c>
       <c r="G2">
-        <v>0.000797103278078809</v>
+        <v>1.039363831047936</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6206290911971308</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.875106943056835</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4047790705905925</v>
+        <v>0.4078300343546601</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.370406997774523</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.265372160298455</v>
+        <v>3.025153637625692</v>
       </c>
       <c r="C3">
-        <v>0.3943094092321076</v>
+        <v>0.4461023878254196</v>
       </c>
       <c r="D3">
-        <v>0.05545161917434882</v>
+        <v>0.0183193579110501</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.137473957477226</v>
+        <v>0.9804266724032402</v>
       </c>
       <c r="G3">
-        <v>0.0008063374028067663</v>
+        <v>0.9383249540667578</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5830235935764136</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7554918506452992</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3553520144290161</v>
+        <v>0.3584591638234826</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.383755654432093</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.966341655888016</v>
+        <v>2.740178822804637</v>
       </c>
       <c r="C4">
-        <v>0.3572052442546862</v>
+        <v>0.4182436386369659</v>
       </c>
       <c r="D4">
-        <v>0.05620179851455376</v>
+        <v>0.01892008454989202</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.001219172663539</v>
+        <v>0.9205424893892484</v>
       </c>
       <c r="G4">
-        <v>0.0008121481476130209</v>
+        <v>0.8793953799257963</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5616390829974165</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.683435729636372</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3257393305230636</v>
+        <v>0.3287607283816527</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.394123378360234</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.845840376693559</v>
+        <v>2.624566006041675</v>
       </c>
       <c r="C5">
-        <v>0.3421963289154064</v>
+        <v>0.4068920234977327</v>
       </c>
       <c r="D5">
-        <v>0.05653102154277079</v>
+        <v>0.01917211291790011</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.946859861802295</v>
+        <v>0.8968066804546453</v>
       </c>
       <c r="G5">
-        <v>0.000814553546955532</v>
+        <v>0.8560924812402533</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5533210143324254</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6543728788811407</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3138351490895559</v>
+        <v>0.3167963083070617</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.39885758149002</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.825907556741015</v>
+        <v>2.605396962531017</v>
       </c>
       <c r="C6">
-        <v>0.3397101563873832</v>
+        <v>0.4050069743535261</v>
       </c>
       <c r="D6">
-        <v>0.05658705852699697</v>
+        <v>0.01921438660505537</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.937900157726503</v>
+        <v>0.8929038886290499</v>
       </c>
       <c r="G6">
-        <v>0.0008149552811469836</v>
+        <v>0.8522640586309365</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5519628336600135</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6495638373321313</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3118677270179688</v>
+        <v>0.3148174877574661</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.399673438882601</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.964711297288034</v>
+        <v>2.738617664810988</v>
       </c>
       <c r="C7">
-        <v>0.3570024089285369</v>
+        <v>0.418090550999807</v>
       </c>
       <c r="D7">
-        <v>0.05620614562169735</v>
+        <v>0.01892345477569712</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.000481516992338</v>
+        <v>0.9202197590083472</v>
       </c>
       <c r="G7">
-        <v>0.0008121804333665513</v>
+        <v>0.8790783177676929</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5615253393313964</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6830426215597143</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3255781530527884</v>
+        <v>0.3285988348841613</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.394185209631218</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.58966564505721</v>
+        <v>3.331299622956863</v>
       </c>
       <c r="C8">
-        <v>0.4343523295781893</v>
+        <v>0.4758526529661822</v>
       </c>
       <c r="D8">
-        <v>0.05473667814038308</v>
+        <v>0.0177042605580926</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.287237693797763</v>
+        <v>1.046789990058471</v>
       </c>
       <c r="G8">
-        <v>0.0008002592271828234</v>
+        <v>1.003836419387426</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6072883941913005</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8335449716289389</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.387570177235645</v>
+        <v>0.3906686708644003</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.374535660689745</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.8746361758175</v>
+        <v>4.518171509823787</v>
       </c>
       <c r="C9">
-        <v>0.5915822749911968</v>
+        <v>0.589711927873509</v>
       </c>
       <c r="D9">
-        <v>0.05275151043547766</v>
+        <v>0.01557840236890939</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.897621208530524</v>
+        <v>1.321258510289553</v>
       </c>
       <c r="G9">
-        <v>0.0007778981751435511</v>
+        <v>1.276622662645821</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7121671590971346</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.142147032211625</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5160738820986097</v>
+        <v>0.5181053647544474</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.355091052331858</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.871216174285507</v>
+        <v>5.413102617905622</v>
       </c>
       <c r="C10">
-        <v>0.7124855510968473</v>
+        <v>0.6742628121944563</v>
       </c>
       <c r="D10">
-        <v>0.05199431038224134</v>
+        <v>0.0142153907555933</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.386374386373461</v>
+        <v>1.54380391721989</v>
       </c>
       <c r="G10">
-        <v>0.0007619283329842089</v>
+        <v>1.499532308581649</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8009220010260094</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.380986504163758</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6164557228608061</v>
+        <v>0.6165072969321557</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.355387584736533</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.340274675863952</v>
+        <v>5.827217831894018</v>
       </c>
       <c r="C11">
-        <v>0.7691898053402895</v>
+        <v>0.7130608646235714</v>
       </c>
       <c r="D11">
-        <v>0.05184426951250742</v>
+        <v>0.01364864843031199</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.620373843139703</v>
+        <v>1.650814748919018</v>
       </c>
       <c r="G11">
-        <v>0.0007547208710969264</v>
+        <v>1.607174049645863</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8444647271923316</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.49329862414686</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6638751740411379</v>
+        <v>0.6626348800004536</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.359469116363357</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.520574479279105</v>
+        <v>5.98522869063072</v>
       </c>
       <c r="C12">
-        <v>0.7909600687474097</v>
+        <v>0.7278139960100418</v>
       </c>
       <c r="D12">
-        <v>0.05181968917155189</v>
+        <v>0.01344272544405989</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.710945959446605</v>
+        <v>1.692283796793461</v>
       </c>
       <c r="G12">
-        <v>0.0007519957377576422</v>
+        <v>1.648960253223493</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8614680205732554</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.536456081749634</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6821287909592115</v>
+        <v>0.6803289892990279</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.361659602573013</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.481617257442451</v>
+        <v>5.951141890618317</v>
       </c>
       <c r="C13">
-        <v>0.7862572925363054</v>
+        <v>0.7246337024913032</v>
       </c>
       <c r="D13">
-        <v>0.05182347302572765</v>
+        <v>0.01348667004522852</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.691347393931409</v>
+        <v>1.683308609628327</v>
       </c>
       <c r="G13">
-        <v>0.0007525825295254619</v>
+        <v>1.639913084563148</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8577821531386007</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.527131684438032</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.678183563237198</v>
+        <v>0.6765076453724106</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.361157798489714</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.355051763554286</v>
+        <v>5.840192393556492</v>
       </c>
       <c r="C14">
-        <v>0.7709745636840069</v>
+        <v>0.7142733083353221</v>
       </c>
       <c r="D14">
-        <v>0.05184157401470202</v>
+        <v>0.01363152639793519</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.627784168219648</v>
+        <v>1.654206752053938</v>
       </c>
       <c r="G14">
-        <v>0.0007544966145412487</v>
+        <v>1.610590507036562</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8458529212872747</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.49683601120546</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6653706812452072</v>
+        <v>0.664085856655646</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.35963591817395</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.277888936509612</v>
+        <v>5.772394091437775</v>
       </c>
       <c r="C15">
-        <v>0.7616539041548265</v>
+        <v>0.7079356421440366</v>
       </c>
       <c r="D15">
-        <v>0.0518569992861444</v>
+        <v>0.01372142003586241</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.589114493137203</v>
+        <v>1.636507946979322</v>
       </c>
       <c r="G15">
-        <v>0.0007556694597834479</v>
+        <v>1.592767055882035</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8386148128101638</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.47836397505823</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6575625192757997</v>
+        <v>0.6565076257095939</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.358790207624423</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.840912589324319</v>
+        <v>5.386195690820841</v>
       </c>
       <c r="C16">
-        <v>0.7088183993383836</v>
+        <v>0.6717350862959961</v>
       </c>
       <c r="D16">
-        <v>0.05200837750172838</v>
+        <v>0.01425358524468301</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.371340024933545</v>
+        <v>1.536936313100895</v>
       </c>
       <c r="G16">
-        <v>0.0007624001766493874</v>
+        <v>1.492633771941598</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7981450195467232</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.373728608046363</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6133957279464397</v>
+        <v>0.613522722767371</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.355206613369631</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.577144117279261</v>
+        <v>5.151196332999689</v>
       </c>
       <c r="C17">
-        <v>0.676876995661587</v>
+        <v>0.6496218320758658</v>
       </c>
       <c r="D17">
-        <v>0.0521538606549754</v>
+        <v>0.0145943827237911</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.240919103387455</v>
+        <v>1.477409631818318</v>
       </c>
       <c r="G17">
-        <v>0.0007665412181410781</v>
+        <v>1.43288932223993</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7741693615607232</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.310543314331611</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.586780072121087</v>
+        <v>0.5875228305100393</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.354070492423858</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.426881687411765</v>
+        <v>5.016678015402249</v>
       </c>
       <c r="C18">
-        <v>0.658662026547745</v>
+        <v>0.6369335838577967</v>
       </c>
       <c r="D18">
-        <v>0.05225554260031728</v>
+        <v>0.01479534685108419</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.166982915434602</v>
+        <v>1.443707223388728</v>
       </c>
       <c r="G18">
-        <v>0.0007689287041437235</v>
+        <v>1.399104689208144</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7606734363875489</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.274538735539267</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5716336483677935</v>
+        <v>0.5726947542129039</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.3537832365231</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.376242719983338</v>
+        <v>4.971238215988421</v>
       </c>
       <c r="C19">
-        <v>0.652520226315545</v>
+        <v>0.6326424673995064</v>
       </c>
       <c r="D19">
-        <v>0.05229294367176252</v>
+        <v>0.01486421072500121</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.142126628454662</v>
+        <v>1.43238486188676</v>
       </c>
       <c r="G19">
-        <v>0.0007697381538701516</v>
+        <v>1.387761555473503</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7561527935474999</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.262403417969253</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5665319343370925</v>
+        <v>0.5676950554000086</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.353746702541201</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.605069793163409</v>
+        <v>5.176144158376133</v>
       </c>
       <c r="C20">
-        <v>0.6802606216508877</v>
+        <v>0.6519725587366167</v>
       </c>
       <c r="D20">
-        <v>0.05213648168161455</v>
+        <v>0.01455758539294472</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.254689088154635</v>
+        <v>1.483690100511282</v>
       </c>
       <c r="G20">
-        <v>0.0007660998380941808</v>
+        <v>1.439188441647332</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7766907523923692</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.317233840985935</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5895962654191891</v>
+        <v>0.5902772746921414</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.354153009546536</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.392150798139028</v>
+        <v>5.872746935404848</v>
       </c>
       <c r="C21">
-        <v>0.7754549356081668</v>
+        <v>0.7173146366681351</v>
       </c>
       <c r="D21">
-        <v>0.05183534458594607</v>
+        <v>0.01358873373647995</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.646398508411096</v>
+        <v>1.662727995651792</v>
       </c>
       <c r="G21">
-        <v>0.0007539343233262311</v>
+        <v>1.619174360213947</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8493423535985869</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.505716682053134</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.669125689890663</v>
+        <v>0.6677280270744177</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.360064752506261</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.922402872263035</v>
+        <v>6.335082260412094</v>
       </c>
       <c r="C22">
-        <v>0.8394351934060182</v>
+        <v>0.7603830947828669</v>
       </c>
       <c r="D22">
-        <v>0.05182899191938617</v>
+        <v>0.01300678549205969</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.914001917940965</v>
+        <v>1.785319887245592</v>
       </c>
       <c r="G22">
-        <v>0.0007460054525264779</v>
+        <v>1.742848270905455</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8998565986310894</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.63261583588779</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7228590055198083</v>
+        <v>0.7196841271475023</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.367732421881428</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.637791664122858</v>
+        <v>6.087611086196546</v>
       </c>
       <c r="C23">
-        <v>0.8051066153849433</v>
+        <v>0.7373586759896398</v>
       </c>
       <c r="D23">
-        <v>0.05181333813113298</v>
+        <v>0.01331230929970317</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.770009923624116</v>
+        <v>1.719337660605973</v>
       </c>
       <c r="G23">
-        <v>0.0007502367339501474</v>
+        <v>1.676242095227678</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8725973320654248</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.564510068443369</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.694003329975402</v>
+        <v>0.691820778763713</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.363263152045619</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.592440322571917</v>
+        <v>5.164863435285383</v>
       </c>
       <c r="C24">
-        <v>0.6787304254303308</v>
+        <v>0.6509097184357131</v>
       </c>
       <c r="D24">
-        <v>0.05214428283341022</v>
+        <v>0.01457420585829183</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.248460445467799</v>
+        <v>1.48084908868249</v>
       </c>
       <c r="G24">
-        <v>0.0007662993646763297</v>
+        <v>1.436338864817003</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7755499389201645</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.314208059915856</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5883225840664181</v>
+        <v>0.5890316201807764</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.354114569510116</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.519097854778977</v>
+        <v>4.193685911948648</v>
       </c>
       <c r="C25">
-        <v>0.548262526219645</v>
+        <v>0.5587948941161187</v>
       </c>
       <c r="D25">
-        <v>0.05317798463792656</v>
+        <v>0.01612162433457165</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.7262993801059</v>
+        <v>1.243721286047943</v>
       </c>
       <c r="G25">
-        <v>0.0007838540523203815</v>
+        <v>1.199295837328037</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6819340368505209</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.056847562201028</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4804008163636126</v>
+        <v>0.4828930226512682</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.358026899488976</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.493286774758758</v>
+        <v>1.495631747129835</v>
       </c>
       <c r="C2">
-        <v>0.4915250839123644</v>
+        <v>0.2578220185193629</v>
       </c>
       <c r="D2">
-        <v>0.01739065888498992</v>
+        <v>0.02687400254731998</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.082697091727937</v>
+        <v>1.047172809179429</v>
       </c>
       <c r="G2">
-        <v>1.039363831047936</v>
+        <v>0.9128616925189732</v>
       </c>
       <c r="H2">
-        <v>0.6206290911971308</v>
+        <v>0.9087555831881531</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4078300343546601</v>
+        <v>0.3022342068966566</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.025153637625692</v>
+        <v>1.365099201893429</v>
       </c>
       <c r="C3">
-        <v>0.4461023878254196</v>
+        <v>0.2424540891787785</v>
       </c>
       <c r="D3">
-        <v>0.0183193579110501</v>
+        <v>0.02711643910000383</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9804266724032402</v>
+        <v>1.03165498405393</v>
       </c>
       <c r="G3">
-        <v>0.9383249540667578</v>
+        <v>0.8970943396398212</v>
       </c>
       <c r="H3">
-        <v>0.5830235935764136</v>
+        <v>0.9079242766196955</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3584591638234826</v>
+        <v>0.2910530132305098</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.740178822804637</v>
+        <v>1.285384004216667</v>
       </c>
       <c r="C4">
-        <v>0.4182436386369659</v>
+        <v>0.2329391894450055</v>
       </c>
       <c r="D4">
-        <v>0.01892008454989202</v>
+        <v>0.02727541241164388</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9205424893892484</v>
+        <v>1.023008281313622</v>
       </c>
       <c r="G4">
-        <v>0.8793953799257963</v>
+        <v>0.8882699481462026</v>
       </c>
       <c r="H4">
-        <v>0.5616390829974165</v>
+        <v>0.9080481364246964</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3287607283816527</v>
+        <v>0.2843731862990069</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.624566006041675</v>
+        <v>1.253008512439408</v>
       </c>
       <c r="C5">
-        <v>0.4068920234977327</v>
+        <v>0.2290420889293898</v>
       </c>
       <c r="D5">
-        <v>0.01917211291790011</v>
+        <v>0.02734274098959588</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8968066804546453</v>
+        <v>1.019705117991904</v>
       </c>
       <c r="G5">
-        <v>0.8560924812402533</v>
+        <v>0.8848879585360834</v>
       </c>
       <c r="H5">
-        <v>0.5533210143324254</v>
+        <v>0.9082575760753429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3167963083070617</v>
+        <v>0.2816975864579234</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.605396962531017</v>
+        <v>1.247639188326445</v>
       </c>
       <c r="C6">
-        <v>0.4050069743535261</v>
+        <v>0.2283937928183377</v>
       </c>
       <c r="D6">
-        <v>0.01921438660505537</v>
+        <v>0.02735407466412987</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8929038886290499</v>
+        <v>1.019169909881882</v>
       </c>
       <c r="G6">
-        <v>0.8522640586309365</v>
+        <v>0.8843392661573262</v>
       </c>
       <c r="H6">
-        <v>0.5519628336600135</v>
+        <v>0.9083019390140947</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3148174877574661</v>
+        <v>0.2812561082109255</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.738617664810988</v>
+        <v>1.284946934733341</v>
       </c>
       <c r="C7">
-        <v>0.418090550999807</v>
+        <v>0.2328867113579065</v>
       </c>
       <c r="D7">
-        <v>0.01892345477569712</v>
+        <v>0.02727631011901721</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9202197590083472</v>
+        <v>1.02296284271219</v>
       </c>
       <c r="G7">
-        <v>0.8790783177676929</v>
+        <v>0.8882234727912106</v>
       </c>
       <c r="H7">
-        <v>0.5615253393313964</v>
+        <v>0.9080503180661879</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3285988348841613</v>
+        <v>0.2843369142118632</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.331299622956863</v>
+        <v>1.450534580073054</v>
       </c>
       <c r="C8">
-        <v>0.4758526529661822</v>
+        <v>0.2525396198684859</v>
       </c>
       <c r="D8">
-        <v>0.0177042605580926</v>
+        <v>0.02695549600567304</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.046789990058471</v>
+        <v>1.041638634564208</v>
       </c>
       <c r="G8">
-        <v>1.003836419387426</v>
+        <v>0.9072464043021142</v>
       </c>
       <c r="H8">
-        <v>0.6072883941913005</v>
+        <v>0.9083369803885262</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3906686708644003</v>
+        <v>0.2983403389382602</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.518171509823787</v>
+        <v>1.778683746166791</v>
       </c>
       <c r="C9">
-        <v>0.589711927873509</v>
+        <v>0.2904481842083158</v>
       </c>
       <c r="D9">
-        <v>0.01557840236890939</v>
+        <v>0.02640658870086554</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.321258510289553</v>
+        <v>1.085310790662845</v>
       </c>
       <c r="G9">
-        <v>1.276622662645821</v>
+        <v>0.9514166244728131</v>
       </c>
       <c r="H9">
-        <v>0.7121671590971346</v>
+        <v>0.9139571724169002</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5181053647544474</v>
+        <v>0.3272814963537769</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.413102617905622</v>
+        <v>2.021898641072028</v>
       </c>
       <c r="C10">
-        <v>0.6742628121944563</v>
+        <v>0.3179119590526511</v>
       </c>
       <c r="D10">
-        <v>0.0142153907555933</v>
+        <v>0.02605215394381233</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.54380391721989</v>
+        <v>1.121776611643</v>
       </c>
       <c r="G10">
-        <v>1.499532308581649</v>
+        <v>0.9881526197793846</v>
       </c>
       <c r="H10">
-        <v>0.8009220010260094</v>
+        <v>0.9212068031884257</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6165072969321557</v>
+        <v>0.3494620940073503</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.827217831894018</v>
+        <v>2.13301358553241</v>
       </c>
       <c r="C11">
-        <v>0.7130608646235714</v>
+        <v>0.3303213550488522</v>
       </c>
       <c r="D11">
-        <v>0.01364864843031199</v>
+        <v>0.02590151975193677</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.650814748919018</v>
+        <v>1.13933502951015</v>
       </c>
       <c r="G11">
-        <v>1.607174049645863</v>
+        <v>1.005816481374524</v>
       </c>
       <c r="H11">
-        <v>0.8444647271923316</v>
+        <v>0.9251905465093273</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6626348800004536</v>
+        <v>0.3597552948515528</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.98522869063072</v>
+        <v>2.175158477031346</v>
       </c>
       <c r="C12">
-        <v>0.7278139960100418</v>
+        <v>0.335008301782608</v>
       </c>
       <c r="D12">
-        <v>0.01344272544405989</v>
+        <v>0.0258460039156958</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.692283796793461</v>
+        <v>1.146124794757426</v>
       </c>
       <c r="G12">
-        <v>1.648960253223493</v>
+        <v>1.012643939424521</v>
       </c>
       <c r="H12">
-        <v>0.8614680205732554</v>
+        <v>0.9267983378686893</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6803289892990279</v>
+        <v>0.3636825006458935</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.951141890618317</v>
+        <v>2.166078796867737</v>
       </c>
       <c r="C13">
-        <v>0.7246337024913032</v>
+        <v>0.333999429725452</v>
       </c>
       <c r="D13">
-        <v>0.01348667004522852</v>
+        <v>0.02585789233679492</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.683308609628327</v>
+        <v>1.144656215663488</v>
       </c>
       <c r="G13">
-        <v>1.639913084563148</v>
+        <v>1.011167337611113</v>
       </c>
       <c r="H13">
-        <v>0.8577821531386007</v>
+        <v>0.9264476480169037</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6765076453724106</v>
+        <v>0.3628353963484017</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.840192393556492</v>
+        <v>2.136479508231446</v>
       </c>
       <c r="C14">
-        <v>0.7142733083353221</v>
+        <v>0.3307071987203187</v>
       </c>
       <c r="D14">
-        <v>0.01363152639793519</v>
+        <v>0.02589692183437364</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.654206752053938</v>
+        <v>1.139890798820474</v>
       </c>
       <c r="G14">
-        <v>1.610590507036562</v>
+        <v>1.006375394944996</v>
       </c>
       <c r="H14">
-        <v>0.8458529212872747</v>
+        <v>0.9253208281671732</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.664085856655646</v>
+        <v>0.3600777982728545</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.772394091437775</v>
+        <v>2.118357947126299</v>
       </c>
       <c r="C15">
-        <v>0.7079356421440366</v>
+        <v>0.328689016369367</v>
       </c>
       <c r="D15">
-        <v>0.01372142003586241</v>
+        <v>0.02592102732922186</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.636507946979322</v>
+        <v>1.136990214877031</v>
       </c>
       <c r="G15">
-        <v>1.592767055882035</v>
+        <v>1.003458280058055</v>
       </c>
       <c r="H15">
-        <v>0.8386148128101638</v>
+        <v>0.9246435598485334</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6565076257095939</v>
+        <v>0.35839252329896</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.386195690820841</v>
+        <v>2.014646557834908</v>
       </c>
       <c r="C16">
-        <v>0.6717350862959961</v>
+        <v>0.3170992730966873</v>
       </c>
       <c r="D16">
-        <v>0.01425358524468301</v>
+        <v>0.02606221168206346</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.536936313100895</v>
+        <v>1.120648756149563</v>
       </c>
       <c r="G16">
-        <v>1.492633771941598</v>
+        <v>0.9870175453972365</v>
       </c>
       <c r="H16">
-        <v>0.7981450195467232</v>
+        <v>0.9209603093079295</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.613522722767371</v>
+        <v>0.3487935123307295</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.151196332999689</v>
+        <v>1.951144503460625</v>
       </c>
       <c r="C17">
-        <v>0.6496218320758658</v>
+        <v>0.3099677211674532</v>
       </c>
       <c r="D17">
-        <v>0.0145943827237911</v>
+        <v>0.02615153972320527</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.477409631818318</v>
+        <v>1.110873145935571</v>
       </c>
       <c r="G17">
-        <v>1.43288932223993</v>
+        <v>0.9771767558577551</v>
       </c>
       <c r="H17">
-        <v>0.7741693615607232</v>
+        <v>0.9188768499564333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5875228305100393</v>
+        <v>0.3429569873279092</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.016678015402249</v>
+        <v>1.914664549583392</v>
       </c>
       <c r="C18">
-        <v>0.6369335838577967</v>
+        <v>0.3058579415454687</v>
       </c>
       <c r="D18">
-        <v>0.01479534685108419</v>
+        <v>0.0262039164256489</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.443707223388728</v>
+        <v>1.105341690322689</v>
       </c>
       <c r="G18">
-        <v>1.399104689208144</v>
+        <v>0.9716061510154361</v>
       </c>
       <c r="H18">
-        <v>0.7606734363875489</v>
+        <v>0.9177430180635895</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5726947542129039</v>
+        <v>0.33961908144191</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.971238215988421</v>
+        <v>1.902320758413111</v>
       </c>
       <c r="C19">
-        <v>0.6326424673995064</v>
+        <v>0.3044650884103817</v>
       </c>
       <c r="D19">
-        <v>0.01486421072500121</v>
+        <v>0.02622182156591002</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.43238486188676</v>
+        <v>1.103484461579896</v>
       </c>
       <c r="G19">
-        <v>1.387761555473503</v>
+        <v>0.9697353735867864</v>
       </c>
       <c r="H19">
-        <v>0.7561527935474999</v>
+        <v>0.9173701846950451</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5676950554000086</v>
+        <v>0.3384922003073001</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.176144158376133</v>
+        <v>1.957899776350871</v>
       </c>
       <c r="C20">
-        <v>0.6519725587366167</v>
+        <v>0.3107277056539317</v>
       </c>
       <c r="D20">
-        <v>0.01455758539294472</v>
+        <v>0.02614192734509757</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.483690100511282</v>
+        <v>1.111904326367238</v>
       </c>
       <c r="G20">
-        <v>1.439188441647332</v>
+        <v>0.9782150445325328</v>
       </c>
       <c r="H20">
-        <v>0.7766907523923692</v>
+        <v>0.9190919559237898</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5902772746921414</v>
+        <v>0.3435763163565611</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.872746935404848</v>
+        <v>2.145171691261112</v>
       </c>
       <c r="C21">
-        <v>0.7173146366681351</v>
+        <v>0.331674539579268</v>
       </c>
       <c r="D21">
-        <v>0.01358873373647995</v>
+        <v>0.02588541649075538</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.662727995651792</v>
+        <v>1.141286686340734</v>
       </c>
       <c r="G21">
-        <v>1.619174360213947</v>
+        <v>1.007779132253376</v>
       </c>
       <c r="H21">
-        <v>0.8493423535985869</v>
+        <v>0.9256491044068298</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6677280270744177</v>
+        <v>0.3608869724494639</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.335082260412094</v>
+        <v>2.267961400599916</v>
       </c>
       <c r="C22">
-        <v>0.7603830947828669</v>
+        <v>0.3452932040565031</v>
       </c>
       <c r="D22">
-        <v>0.01300678549205969</v>
+        <v>0.02572666810060653</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.785319887245592</v>
+        <v>1.161310898563826</v>
       </c>
       <c r="G22">
-        <v>1.742848270905455</v>
+        <v>1.027909205632852</v>
       </c>
       <c r="H22">
-        <v>0.8998565986310894</v>
+        <v>0.9305132782644421</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7196841271475023</v>
+        <v>0.3723719053383547</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.087611086196546</v>
+        <v>2.20239000393957</v>
       </c>
       <c r="C23">
-        <v>0.7373586759896398</v>
+        <v>0.3380312360669677</v>
       </c>
       <c r="D23">
-        <v>0.01331230929970317</v>
+        <v>0.02581058035689665</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.719337660605973</v>
+        <v>1.1505480349267</v>
       </c>
       <c r="G23">
-        <v>1.676242095227678</v>
+        <v>1.017090932399725</v>
       </c>
       <c r="H23">
-        <v>0.8725973320654248</v>
+        <v>0.9278640238734113</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.691820778763713</v>
+        <v>0.3662264342279826</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.164863435285383</v>
+        <v>1.954845629550903</v>
       </c>
       <c r="C24">
-        <v>0.6509097184357131</v>
+        <v>0.3103841470452267</v>
       </c>
       <c r="D24">
-        <v>0.01457420585829183</v>
+        <v>0.02614626992107816</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.48084908868249</v>
+        <v>1.111437853585571</v>
       </c>
       <c r="G24">
-        <v>1.436338864817003</v>
+        <v>0.977745363360043</v>
       </c>
       <c r="H24">
-        <v>0.7755499389201645</v>
+        <v>0.9189945072772332</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5890316201807764</v>
+        <v>0.3432962629290728</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.193685911948648</v>
+        <v>1.689540161331706</v>
       </c>
       <c r="C25">
-        <v>0.5587948941161187</v>
+        <v>0.2802607805170396</v>
       </c>
       <c r="D25">
-        <v>0.01612162433457165</v>
+        <v>0.02654650298055294</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.243721286047943</v>
+        <v>1.072733144581917</v>
       </c>
       <c r="G25">
-        <v>1.199295837328037</v>
+        <v>0.9387221814268401</v>
       </c>
       <c r="H25">
-        <v>0.6819340368505209</v>
+        <v>0.9118914524562172</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4828930226512682</v>
+        <v>0.3192921134006497</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.495631747129835</v>
+        <v>3.493286774758701</v>
       </c>
       <c r="C2">
-        <v>0.2578220185193629</v>
+        <v>0.4915250839123928</v>
       </c>
       <c r="D2">
-        <v>0.02687400254731998</v>
+        <v>0.01739065888476077</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.047172809179429</v>
+        <v>1.082697091727937</v>
       </c>
       <c r="G2">
-        <v>0.9128616925189732</v>
+        <v>1.039363831047979</v>
       </c>
       <c r="H2">
-        <v>0.9087555831881531</v>
+        <v>0.6206290911972445</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3022342068966566</v>
+        <v>0.407830034354717</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.365099201893429</v>
+        <v>3.025153637625692</v>
       </c>
       <c r="C3">
-        <v>0.2424540891787785</v>
+        <v>0.4461023878255617</v>
       </c>
       <c r="D3">
-        <v>0.02711643910000383</v>
+        <v>0.01831935791103412</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.03165498405393</v>
+        <v>0.9804266724032544</v>
       </c>
       <c r="G3">
-        <v>0.8970943396398212</v>
+        <v>0.9383249540667435</v>
       </c>
       <c r="H3">
-        <v>0.9079242766196955</v>
+        <v>0.5830235935764136</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2910530132305098</v>
+        <v>0.3584591638234116</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.285384004216667</v>
+        <v>2.74017882280441</v>
       </c>
       <c r="C4">
-        <v>0.2329391894450055</v>
+        <v>0.4182436386367669</v>
       </c>
       <c r="D4">
-        <v>0.02727541241164388</v>
+        <v>0.01892008454983518</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.023008281313622</v>
+        <v>0.9205424893892342</v>
       </c>
       <c r="G4">
-        <v>0.8882699481462026</v>
+        <v>0.8793953799258531</v>
       </c>
       <c r="H4">
-        <v>0.9080481364246964</v>
+        <v>0.5616390829974023</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2843731862990069</v>
+        <v>0.3287607283815532</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.253008512439408</v>
+        <v>2.624566006041732</v>
       </c>
       <c r="C5">
-        <v>0.2290420889293898</v>
+        <v>0.4068920234980453</v>
       </c>
       <c r="D5">
-        <v>0.02734274098959588</v>
+        <v>0.01917211291800847</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.019705117991904</v>
+        <v>0.8968066804546311</v>
       </c>
       <c r="G5">
-        <v>0.8848879585360834</v>
+        <v>0.8560924812402249</v>
       </c>
       <c r="H5">
-        <v>0.9082575760753429</v>
+        <v>0.5533210143323117</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2816975864579234</v>
+        <v>0.3167963083070617</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.247639188326445</v>
+        <v>2.605396962530847</v>
       </c>
       <c r="C6">
-        <v>0.2283937928183377</v>
+        <v>0.4050069743531424</v>
       </c>
       <c r="D6">
-        <v>0.02735407466412987</v>
+        <v>0.01921438660499319</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.019169909881882</v>
+        <v>0.8929038886290499</v>
       </c>
       <c r="G6">
-        <v>0.8843392661573262</v>
+        <v>0.8522640586309222</v>
       </c>
       <c r="H6">
-        <v>0.9083019390140947</v>
+        <v>0.5519628336600277</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2812561082109255</v>
+        <v>0.3148174877575798</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.284946934733341</v>
+        <v>2.738617664810931</v>
       </c>
       <c r="C7">
-        <v>0.2328867113579065</v>
+        <v>0.4180905510000628</v>
       </c>
       <c r="D7">
-        <v>0.02727631011901721</v>
+        <v>0.01892345477587298</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.02296284271219</v>
+        <v>0.9202197590083756</v>
       </c>
       <c r="G7">
-        <v>0.8882234727912106</v>
+        <v>0.8790783177677923</v>
       </c>
       <c r="H7">
-        <v>0.9080503180661879</v>
+        <v>0.5615253393312827</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2843369142118632</v>
+        <v>0.3285988348841187</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.450534580073054</v>
+        <v>3.331299622957033</v>
       </c>
       <c r="C8">
-        <v>0.2525396198684859</v>
+        <v>0.4758526529662106</v>
       </c>
       <c r="D8">
-        <v>0.02695549600567304</v>
+        <v>0.01770426055797358</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.041638634564208</v>
+        <v>1.046789990058485</v>
       </c>
       <c r="G8">
-        <v>0.9072464043021142</v>
+        <v>1.003836419387397</v>
       </c>
       <c r="H8">
-        <v>0.9083369803885262</v>
+        <v>0.6072883941913005</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2983403389382602</v>
+        <v>0.3906686708643576</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.778683746166791</v>
+        <v>4.518171509823674</v>
       </c>
       <c r="C9">
-        <v>0.2904481842083158</v>
+        <v>0.5897119278736227</v>
       </c>
       <c r="D9">
-        <v>0.02640658870086554</v>
+        <v>0.01557840236893249</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.085310790662845</v>
+        <v>1.321258510289539</v>
       </c>
       <c r="G9">
-        <v>0.9514166244728131</v>
+        <v>1.276622662645877</v>
       </c>
       <c r="H9">
-        <v>0.9139571724169002</v>
+        <v>0.7121671590972483</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3272814963537769</v>
+        <v>0.5181053647543905</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.021898641072028</v>
+        <v>5.413102617905452</v>
       </c>
       <c r="C10">
-        <v>0.3179119590526511</v>
+        <v>0.6742628121944279</v>
       </c>
       <c r="D10">
-        <v>0.02605215394381233</v>
+        <v>0.01421539075567324</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.121776611643</v>
+        <v>1.543803917219876</v>
       </c>
       <c r="G10">
-        <v>0.9881526197793846</v>
+        <v>1.499532308581593</v>
       </c>
       <c r="H10">
-        <v>0.9212068031884257</v>
+        <v>0.8009220010259241</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3494620940073503</v>
+        <v>0.6165072969322836</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.13301358553241</v>
+        <v>5.827217831894075</v>
       </c>
       <c r="C11">
-        <v>0.3303213550488522</v>
+        <v>0.7130608646233156</v>
       </c>
       <c r="D11">
-        <v>0.02590151975193677</v>
+        <v>0.0136486484302214</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.13933502951015</v>
+        <v>1.650814748919032</v>
       </c>
       <c r="G11">
-        <v>1.005816481374524</v>
+        <v>1.607174049645892</v>
       </c>
       <c r="H11">
-        <v>0.9251905465093273</v>
+        <v>0.8444647271924453</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3597552948515528</v>
+        <v>0.6626348800005104</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.175158477031346</v>
+        <v>5.985228690630834</v>
       </c>
       <c r="C12">
-        <v>0.335008301782608</v>
+        <v>0.7278139960100418</v>
       </c>
       <c r="D12">
-        <v>0.0258460039156958</v>
+        <v>0.0134427254443672</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.146124794757426</v>
+        <v>1.692283796793475</v>
       </c>
       <c r="G12">
-        <v>1.012643939424521</v>
+        <v>1.648960253223493</v>
       </c>
       <c r="H12">
-        <v>0.9267983378686893</v>
+        <v>0.8614680205731418</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3636825006458935</v>
+        <v>0.6803289892989994</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.166078796867737</v>
+        <v>5.951141890618374</v>
       </c>
       <c r="C13">
-        <v>0.333999429725452</v>
+        <v>0.7246337024912464</v>
       </c>
       <c r="D13">
-        <v>0.02585789233679492</v>
+        <v>0.01348667004510773</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.144656215663488</v>
+        <v>1.683308609628313</v>
       </c>
       <c r="G13">
-        <v>1.011167337611113</v>
+        <v>1.639913084563148</v>
       </c>
       <c r="H13">
-        <v>0.9264476480169037</v>
+        <v>0.8577821531385723</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3628353963484017</v>
+        <v>0.6765076453724959</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.136479508231446</v>
+        <v>5.840192393556379</v>
       </c>
       <c r="C14">
-        <v>0.3307071987203187</v>
+        <v>0.7142733083354642</v>
       </c>
       <c r="D14">
-        <v>0.02589692183437364</v>
+        <v>0.01363152639799559</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.139890798820474</v>
+        <v>1.654206752053909</v>
       </c>
       <c r="G14">
-        <v>1.006375394944996</v>
+        <v>1.610590507036505</v>
       </c>
       <c r="H14">
-        <v>0.9253208281671732</v>
+        <v>0.8458529212872747</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3600777982728545</v>
+        <v>0.6640858566557313</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.118357947126299</v>
+        <v>5.772394091437775</v>
       </c>
       <c r="C15">
-        <v>0.328689016369367</v>
+        <v>0.7079356421440366</v>
       </c>
       <c r="D15">
-        <v>0.02592102732922186</v>
+        <v>0.01372142003586241</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.136990214877031</v>
+        <v>1.636507946979322</v>
       </c>
       <c r="G15">
-        <v>1.003458280058055</v>
+        <v>1.592767055881978</v>
       </c>
       <c r="H15">
-        <v>0.9246435598485334</v>
+        <v>0.8386148128101638</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.35839252329896</v>
+        <v>0.6565076257095512</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.014646557834908</v>
+        <v>5.386195690820728</v>
       </c>
       <c r="C16">
-        <v>0.3170992730966873</v>
+        <v>0.6717350862959393</v>
       </c>
       <c r="D16">
-        <v>0.02606221168206346</v>
+        <v>0.01425358524459064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.120648756149563</v>
+        <v>1.536936313100895</v>
       </c>
       <c r="G16">
-        <v>0.9870175453972365</v>
+        <v>1.492633771941541</v>
       </c>
       <c r="H16">
-        <v>0.9209603093079295</v>
+        <v>0.7981450195468369</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3487935123307295</v>
+        <v>0.6135227227673852</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.951144503460625</v>
+        <v>5.151196332999632</v>
       </c>
       <c r="C17">
-        <v>0.3099677211674532</v>
+        <v>0.6496218320758942</v>
       </c>
       <c r="D17">
-        <v>0.02615153972320527</v>
+        <v>0.01459438272387281</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.110873145935571</v>
+        <v>1.477409631818304</v>
       </c>
       <c r="G17">
-        <v>0.9771767558577551</v>
+        <v>1.432889322239987</v>
       </c>
       <c r="H17">
-        <v>0.9188768499564333</v>
+        <v>0.7741693615606948</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3429569873279092</v>
+        <v>0.5875228305100393</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.914664549583392</v>
+        <v>5.01667801540242</v>
       </c>
       <c r="C18">
-        <v>0.3058579415454687</v>
+        <v>0.6369335838575694</v>
       </c>
       <c r="D18">
-        <v>0.0262039164256489</v>
+        <v>0.01479534685095629</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.105341690322689</v>
+        <v>1.443707223388728</v>
       </c>
       <c r="G18">
-        <v>0.9716061510154361</v>
+        <v>1.399104689208173</v>
       </c>
       <c r="H18">
-        <v>0.9177430180635895</v>
+        <v>0.7606734363875489</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.33961908144191</v>
+        <v>0.5726947542129039</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.902320758413111</v>
+        <v>4.971238215988365</v>
       </c>
       <c r="C19">
-        <v>0.3044650884103817</v>
+        <v>0.6326424673995064</v>
       </c>
       <c r="D19">
-        <v>0.02622182156591002</v>
+        <v>0.01486421072510424</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.103484461579896</v>
+        <v>1.432384861886746</v>
       </c>
       <c r="G19">
-        <v>0.9697353735867864</v>
+        <v>1.38776155547356</v>
       </c>
       <c r="H19">
-        <v>0.9173701846950451</v>
+        <v>0.7561527935476136</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3384922003073001</v>
+        <v>0.5676950554000229</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.957899776350871</v>
+        <v>5.176144158376303</v>
       </c>
       <c r="C20">
-        <v>0.3107277056539317</v>
+        <v>0.6519725587365883</v>
       </c>
       <c r="D20">
-        <v>0.02614192734509757</v>
+        <v>0.01455758539282748</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.111904326367238</v>
+        <v>1.483690100511296</v>
       </c>
       <c r="G20">
-        <v>0.9782150445325328</v>
+        <v>1.439188441647332</v>
       </c>
       <c r="H20">
-        <v>0.9190919559237898</v>
+        <v>0.7766907523923408</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3435763163565611</v>
+        <v>0.5902772746920846</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.145171691261112</v>
+        <v>5.872746935404848</v>
       </c>
       <c r="C21">
-        <v>0.331674539579268</v>
+        <v>0.7173146366684762</v>
       </c>
       <c r="D21">
-        <v>0.02588541649075538</v>
+        <v>0.01358873373642666</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.141286686340734</v>
+        <v>1.662727995651792</v>
       </c>
       <c r="G21">
-        <v>1.007779132253376</v>
+        <v>1.619174360213975</v>
       </c>
       <c r="H21">
-        <v>0.9256491044068298</v>
+        <v>0.8493423535986722</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3608869724494639</v>
+        <v>0.6677280270743466</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.267961400599916</v>
+        <v>6.33508226041215</v>
       </c>
       <c r="C22">
-        <v>0.3452932040565031</v>
+        <v>0.7603830947828385</v>
       </c>
       <c r="D22">
-        <v>0.02572666810060653</v>
+        <v>0.01300678549204548</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.161310898563826</v>
+        <v>1.785319887245635</v>
       </c>
       <c r="G22">
-        <v>1.027909205632852</v>
+        <v>1.742848270905455</v>
       </c>
       <c r="H22">
-        <v>0.9305132782644421</v>
+        <v>0.8998565986310894</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3723719053383547</v>
+        <v>0.7196841271473033</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.20239000393957</v>
+        <v>6.087611086196489</v>
       </c>
       <c r="C23">
-        <v>0.3380312360669677</v>
+        <v>0.7373586759896682</v>
       </c>
       <c r="D23">
-        <v>0.02581058035689665</v>
+        <v>0.01331230929957172</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.1505480349267</v>
+        <v>1.719337660605945</v>
       </c>
       <c r="G23">
-        <v>1.017090932399725</v>
+        <v>1.67624209522765</v>
       </c>
       <c r="H23">
-        <v>0.9278640238734113</v>
+        <v>0.8725973320654532</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3662264342279826</v>
+        <v>0.6918207787637272</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.954845629550903</v>
+        <v>5.164863435285326</v>
       </c>
       <c r="C24">
-        <v>0.3103841470452267</v>
+        <v>0.6509097184358268</v>
       </c>
       <c r="D24">
-        <v>0.02614626992107816</v>
+        <v>0.01457420585852276</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.111437853585571</v>
+        <v>1.48084908868249</v>
       </c>
       <c r="G24">
-        <v>0.977745363360043</v>
+        <v>1.436338864817003</v>
       </c>
       <c r="H24">
-        <v>0.9189945072772332</v>
+        <v>0.7755499389201645</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3432962629290728</v>
+        <v>0.5890316201807053</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.689540161331706</v>
+        <v>4.193685911948648</v>
       </c>
       <c r="C25">
-        <v>0.2802607805170396</v>
+        <v>0.5587948941159766</v>
       </c>
       <c r="D25">
-        <v>0.02654650298055294</v>
+        <v>0.01612162433468889</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.072733144581917</v>
+        <v>1.243721286047929</v>
       </c>
       <c r="G25">
-        <v>0.9387221814268401</v>
+        <v>1.199295837328037</v>
       </c>
       <c r="H25">
-        <v>0.9118914524562172</v>
+        <v>0.6819340368504072</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3192921134006497</v>
+        <v>0.482893022651254</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.493286774758701</v>
+        <v>1.244277107673071</v>
       </c>
       <c r="C2">
-        <v>0.4915250839123928</v>
+        <v>0.1318052031266959</v>
       </c>
       <c r="D2">
-        <v>0.01739065888476077</v>
+        <v>0.05907803985302706</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.082697091727937</v>
+        <v>0.7717188123517644</v>
       </c>
       <c r="G2">
-        <v>1.039363831047979</v>
+        <v>0.6902636702687346</v>
       </c>
       <c r="H2">
-        <v>0.6206290911972445</v>
+        <v>0.002468299357007431</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00326897146685301</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5060915306543734</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5722622802076458</v>
       </c>
       <c r="L2">
-        <v>0.407830034354717</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.066674019119773</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4200286285936983</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9845439690202369</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.025153637625692</v>
+        <v>1.084536857298843</v>
       </c>
       <c r="C3">
-        <v>0.4461023878255617</v>
+        <v>0.1195084187810949</v>
       </c>
       <c r="D3">
-        <v>0.01831935791103412</v>
+        <v>0.0550030101447021</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9804266724032544</v>
+        <v>0.7253156068911295</v>
       </c>
       <c r="G3">
-        <v>0.9383249540667435</v>
+        <v>0.6520667937104463</v>
       </c>
       <c r="H3">
-        <v>0.5830235935764136</v>
+        <v>0.003934135953981954</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004891154226545069</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4926125650399769</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5542862653869065</v>
       </c>
       <c r="L3">
-        <v>0.3584591638234116</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9272302767665792</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.368811726584596</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.014131744906603</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.74017882280441</v>
+        <v>0.9861535726990951</v>
       </c>
       <c r="C4">
-        <v>0.4182436386367669</v>
+        <v>0.1120338996136923</v>
       </c>
       <c r="D4">
-        <v>0.01892008454983518</v>
+        <v>0.05249001293404731</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9205424893892342</v>
+        <v>0.6973318462440687</v>
       </c>
       <c r="G4">
-        <v>0.8793953799258531</v>
+        <v>0.6290242808808273</v>
       </c>
       <c r="H4">
-        <v>0.5616390829974023</v>
+        <v>0.00504520867195335</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006146847282475054</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4846197181649927</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5434005745879702</v>
       </c>
       <c r="L4">
-        <v>0.3287607283815532</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8416453113213436</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3373557407016108</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.032766736318663</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.624566006041732</v>
+        <v>0.9450905385931776</v>
       </c>
       <c r="C5">
-        <v>0.4068920234980453</v>
+        <v>0.1091515980843596</v>
       </c>
       <c r="D5">
-        <v>0.01917211291800847</v>
+        <v>0.05150847121111113</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8968066804546311</v>
+        <v>0.6853891773093181</v>
       </c>
       <c r="G5">
-        <v>0.8560924812402249</v>
+        <v>0.6190159894763667</v>
       </c>
       <c r="H5">
-        <v>0.5533210143323117</v>
+        <v>0.005552446232594377</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006802105394785762</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4810653592511187</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5384084787383223</v>
       </c>
       <c r="L5">
-        <v>0.3167963083070617</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8066048722437813</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3245176007505961</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.040104570965315</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.605396962530847</v>
+        <v>0.9371782577947556</v>
       </c>
       <c r="C6">
-        <v>0.4050069743531424</v>
+        <v>0.1088566162934654</v>
       </c>
       <c r="D6">
-        <v>0.01921438660499319</v>
+        <v>0.05140125160779974</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8929038886290499</v>
+        <v>0.6826078367447153</v>
       </c>
       <c r="G6">
-        <v>0.8522640586309222</v>
+        <v>0.6164867030830976</v>
       </c>
       <c r="H6">
-        <v>0.5519628336600277</v>
+        <v>0.005644034620777671</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007020850118509614</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.480032694794275</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5368587820847388</v>
       </c>
       <c r="L6">
-        <v>0.3148174877575798</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8005863479877746</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3223684040043082</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.040878886244226</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.738617664810931</v>
+        <v>0.9826157327267708</v>
       </c>
       <c r="C7">
-        <v>0.4180905510000628</v>
+        <v>0.1124954945979226</v>
       </c>
       <c r="D7">
-        <v>0.01892345477587298</v>
+        <v>0.05263044196301081</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9202197590083756</v>
+        <v>0.6949698172713781</v>
       </c>
       <c r="G7">
-        <v>0.8790783177677923</v>
+        <v>0.6265033207375268</v>
       </c>
       <c r="H7">
-        <v>0.5615253393312827</v>
+        <v>0.005062814565506002</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006428643977514525</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4833528196322163</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5413587903446562</v>
       </c>
       <c r="L7">
-        <v>0.3285988348841187</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8406242187015778</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3371362594433265</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.031647186921514</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.331299622957033</v>
+        <v>1.185265092798829</v>
       </c>
       <c r="C8">
-        <v>0.4758526529662106</v>
+        <v>0.1282177303591894</v>
       </c>
       <c r="D8">
-        <v>0.01770426055797358</v>
+        <v>0.0578823219403759</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.046789990058485</v>
+        <v>0.7526935771925665</v>
       </c>
       <c r="G8">
-        <v>1.003836419387397</v>
+        <v>0.6738446468460211</v>
       </c>
       <c r="H8">
-        <v>0.6072883941913005</v>
+        <v>0.002939094126056085</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004097825828438317</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4997749885710903</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5634218417287613</v>
       </c>
       <c r="L8">
-        <v>0.3906686708643576</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.017842396634791</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4023073466065199</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.9930989474747065</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.518171509823674</v>
+        <v>1.585960042174207</v>
       </c>
       <c r="C9">
-        <v>0.5897119278736227</v>
+        <v>0.1589347194199036</v>
       </c>
       <c r="D9">
-        <v>0.01557840236893249</v>
+        <v>0.06782824546488797</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.321258510289539</v>
+        <v>0.8742666503223262</v>
       </c>
       <c r="G9">
-        <v>1.276622662645877</v>
+        <v>0.7745729030454527</v>
       </c>
       <c r="H9">
-        <v>0.7121671590972483</v>
+        <v>0.0005381415147376334</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001304622127550559</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5365575348363194</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6115523996210754</v>
       </c>
       <c r="L9">
-        <v>0.5181053647543905</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.36709873074409</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5302920911765767</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.9234422754581324</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.413102617905452</v>
+        <v>1.862857538252683</v>
       </c>
       <c r="C10">
-        <v>0.6742628121944279</v>
+        <v>0.1852119040066498</v>
       </c>
       <c r="D10">
-        <v>0.01421539075567324</v>
+        <v>0.07601632044215023</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.543803917219876</v>
+        <v>0.9551201826145217</v>
       </c>
       <c r="G10">
-        <v>1.499532308581593</v>
+        <v>0.838602015785213</v>
       </c>
       <c r="H10">
-        <v>0.8009220010259241</v>
+        <v>0.0001982422854682753</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009021462300911054</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5588875814099339</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6375502399540025</v>
       </c>
       <c r="L10">
-        <v>0.6165072969322836</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.621644927759178</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5945918143656712</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8694829628060674</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.827217831894075</v>
+        <v>1.852315257434384</v>
       </c>
       <c r="C11">
-        <v>0.7130608646233156</v>
+        <v>0.2251917252629738</v>
       </c>
       <c r="D11">
-        <v>0.0136486484302214</v>
+        <v>0.08778868907100446</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.650814748919032</v>
+        <v>0.8976274896946279</v>
       </c>
       <c r="G11">
-        <v>1.607174049645892</v>
+        <v>0.7665528520656153</v>
       </c>
       <c r="H11">
-        <v>0.8444647271924453</v>
+        <v>0.01878147404732999</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001432345544799318</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5181408977129962</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5678211048544952</v>
       </c>
       <c r="L11">
-        <v>0.6626348800005104</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.711292424947629</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3910624706295067</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8094140908454452</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.985228690630834</v>
+        <v>1.789365335551565</v>
       </c>
       <c r="C12">
-        <v>0.7278139960100418</v>
+        <v>0.2569794131921697</v>
       </c>
       <c r="D12">
-        <v>0.0134427254443672</v>
+        <v>0.09653665844742676</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.692283796793475</v>
+        <v>0.8362134224943958</v>
       </c>
       <c r="G12">
-        <v>1.648960253223493</v>
+        <v>0.6979336972102033</v>
       </c>
       <c r="H12">
-        <v>0.8614680205731418</v>
+        <v>0.05749935744623258</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00143333677744728</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4817003359682559</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5097869273897686</v>
       </c>
       <c r="L12">
-        <v>0.6803289892989994</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.733510162808017</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2433897619646217</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7801608247359511</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.951141890618374</v>
+        <v>1.678183634949107</v>
       </c>
       <c r="C13">
-        <v>0.7246337024912464</v>
+        <v>0.2846225722159375</v>
       </c>
       <c r="D13">
-        <v>0.01348667004510773</v>
+        <v>0.1035999938641723</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.683308609628313</v>
+        <v>0.7647008989334978</v>
       </c>
       <c r="G13">
-        <v>1.639913084563148</v>
+        <v>0.6242122110165411</v>
       </c>
       <c r="H13">
-        <v>0.8577821531385723</v>
+        <v>0.1133435195119148</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001387226605018554</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4444960835090228</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4543186818640166</v>
       </c>
       <c r="L13">
-        <v>0.6765076453724959</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.7039392385268</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.130499318076815</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7702360017225756</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.840192393556379</v>
+        <v>1.578418681797672</v>
       </c>
       <c r="C14">
-        <v>0.7142733083354642</v>
+        <v>0.3026933627218682</v>
       </c>
       <c r="D14">
-        <v>0.01363152639799559</v>
+        <v>0.1078780974371369</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.654206752053909</v>
+        <v>0.7100441812401357</v>
       </c>
       <c r="G14">
-        <v>1.610590507036505</v>
+        <v>0.5704102650417298</v>
       </c>
       <c r="H14">
-        <v>0.8458529212872747</v>
+        <v>0.162794457691561</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001445448956612694</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4181106543558997</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4169193826808772</v>
       </c>
       <c r="L14">
-        <v>0.6640858566557313</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.65973032229482</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07279799808832621</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7727619862829957</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.772394091437775</v>
+        <v>1.543000496455903</v>
       </c>
       <c r="C15">
-        <v>0.7079356421440366</v>
+        <v>0.3059477000327746</v>
       </c>
       <c r="D15">
-        <v>0.01372142003586241</v>
+        <v>0.1085291611807122</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.636507946979322</v>
+        <v>0.6938448001493001</v>
       </c>
       <c r="G15">
-        <v>1.592767055881978</v>
+        <v>0.5553118327903803</v>
       </c>
       <c r="H15">
-        <v>0.8386148128101638</v>
+        <v>0.1753530114930442</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001582657750939021</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4110794818061123</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4074614771018439</v>
       </c>
       <c r="L15">
-        <v>0.6565076257095512</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.637801827226383</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0614014253880093</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7762897910923421</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.386195690820728</v>
+        <v>1.447751348577071</v>
       </c>
       <c r="C16">
-        <v>0.6717350862959393</v>
+        <v>0.2882329844822209</v>
       </c>
       <c r="D16">
-        <v>0.01425358524459064</v>
+        <v>0.1033755622781598</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.536936313100895</v>
+        <v>0.6728755534697655</v>
       </c>
       <c r="G16">
-        <v>1.492633771941541</v>
+        <v>0.542101508121732</v>
       </c>
       <c r="H16">
-        <v>0.7981450195468369</v>
+        <v>0.1628700655063398</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001864443143071881</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4084894692492753</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4071010202754408</v>
       </c>
       <c r="L16">
-        <v>0.6135227227673852</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.534038095200458</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06040643259327538</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7986308898249224</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.151196332999632</v>
+        <v>1.427120871533617</v>
       </c>
       <c r="C17">
-        <v>0.6496218320758942</v>
+        <v>0.2649017623289467</v>
       </c>
       <c r="D17">
-        <v>0.01459438272387281</v>
+        <v>0.09715157149752685</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.477409631818304</v>
+        <v>0.6856330360926179</v>
       </c>
       <c r="G17">
-        <v>1.432889322239987</v>
+        <v>0.5602013933787902</v>
       </c>
       <c r="H17">
-        <v>0.7741693615606948</v>
+        <v>0.1252313041234885</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002091805224155863</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4204074685174533</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4262397656109975</v>
       </c>
       <c r="L17">
-        <v>0.5875228305100393</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.478077324405888</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08628655262421603</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8141775059869092</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.01667801540242</v>
+        <v>1.470938046568563</v>
       </c>
       <c r="C18">
-        <v>0.6369335838575694</v>
+        <v>0.2352675483307252</v>
       </c>
       <c r="D18">
-        <v>0.01479534685095629</v>
+        <v>0.08945105892325955</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.443707223388728</v>
+        <v>0.7310488921145577</v>
       </c>
       <c r="G18">
-        <v>1.399104689208173</v>
+        <v>0.6101855266647931</v>
       </c>
       <c r="H18">
-        <v>0.7606734363875489</v>
+        <v>0.07236922563637904</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001912201308454264</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4475258024649662</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4674036940550579</v>
       </c>
       <c r="L18">
-        <v>0.5726947542129039</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.456962910000556</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1569782207834223</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8299050316976986</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.971238215988365</v>
+        <v>1.559119151854787</v>
       </c>
       <c r="C19">
-        <v>0.6326424673995064</v>
+        <v>0.2071061630444859</v>
       </c>
       <c r="D19">
-        <v>0.01486421072510424</v>
+        <v>0.08198031915806325</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.432384861886746</v>
+        <v>0.7972531150553266</v>
       </c>
       <c r="G19">
-        <v>1.38776155547356</v>
+        <v>0.680780622067374</v>
       </c>
       <c r="H19">
-        <v>0.7561527935476136</v>
+        <v>0.02688556039869638</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001946916904548956</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4839997143788821</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5234419525888896</v>
       </c>
       <c r="L19">
-        <v>0.5676950554000229</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.46415247388785</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2871072569878521</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8499879278352118</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.176144158376303</v>
+        <v>1.779995697587367</v>
       </c>
       <c r="C20">
-        <v>0.6519725587365883</v>
+        <v>0.1800195991776263</v>
       </c>
       <c r="D20">
-        <v>0.01455758539282748</v>
+        <v>0.0744135256650722</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.483690100511296</v>
+        <v>0.9263485089521453</v>
       </c>
       <c r="G20">
-        <v>1.439188441647332</v>
+        <v>0.8136978007213287</v>
       </c>
       <c r="H20">
-        <v>0.7766907523923408</v>
+        <v>0.0001939096816889752</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001698532978535283</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5489100399565814</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6241816362501424</v>
       </c>
       <c r="L20">
-        <v>0.5902772746920846</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.552780303526447</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5762917929855433</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8799969404958681</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.872746935404848</v>
+        <v>2.017644032705732</v>
       </c>
       <c r="C21">
-        <v>0.7173146366684762</v>
+        <v>0.1960109275872242</v>
       </c>
       <c r="D21">
-        <v>0.01358873373642666</v>
+        <v>0.07932175655086127</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.662727995651792</v>
+        <v>1.007579877485654</v>
       </c>
       <c r="G21">
-        <v>1.619174360213975</v>
+        <v>0.8832747651104427</v>
       </c>
       <c r="H21">
-        <v>0.8493423535986722</v>
+        <v>7.289570892621278E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001730994744017167</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.576428624991479</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.660355272976652</v>
       </c>
       <c r="L21">
-        <v>0.6677280270743466</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.753503614414541</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6722458454561036</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.8477675107826208</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.33508226041215</v>
+        <v>2.169326974275464</v>
       </c>
       <c r="C22">
-        <v>0.7603830947828385</v>
+        <v>0.2073872003334287</v>
       </c>
       <c r="D22">
-        <v>0.01300678549204548</v>
+        <v>0.08273663696439826</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.785319887245635</v>
+        <v>1.058907706828961</v>
       </c>
       <c r="G22">
-        <v>1.742848270905455</v>
+        <v>0.9266640123456824</v>
       </c>
       <c r="H22">
-        <v>0.8998565986310894</v>
+        <v>0.0003569505637777137</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001782827104665152</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5934164920602143</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6820168777670759</v>
       </c>
       <c r="L22">
-        <v>0.7196841271473033</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.88442346016484</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7198816895434561</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.8261127385388392</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.087611086196489</v>
+        <v>2.092031651654111</v>
       </c>
       <c r="C23">
-        <v>0.7373586759896682</v>
+        <v>0.2006663312221804</v>
       </c>
       <c r="D23">
-        <v>0.01331230929957172</v>
+        <v>0.08071817410944249</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.719337660605945</v>
+        <v>1.034036760855415</v>
       </c>
       <c r="G23">
-        <v>1.67624209522765</v>
+        <v>0.9062534167078553</v>
       </c>
       <c r="H23">
-        <v>0.8725973320654532</v>
+        <v>0.000181164785949095</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001424586223309099</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5857321908465849</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.672739047448573</v>
       </c>
       <c r="L23">
-        <v>0.6918207787637272</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.815199130576872</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6944998367360711</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.8388266179036279</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.164863435285326</v>
+        <v>1.793618854316719</v>
       </c>
       <c r="C24">
-        <v>0.6509097184358268</v>
+        <v>0.1766606669851001</v>
       </c>
       <c r="D24">
-        <v>0.01457420585852276</v>
+        <v>0.07338437696483169</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.48084908868249</v>
+        <v>0.9374520277430918</v>
       </c>
       <c r="G24">
-        <v>1.436338864817003</v>
+        <v>0.8259897359275357</v>
       </c>
       <c r="H24">
-        <v>0.7755499389201645</v>
+        <v>5.895578794867795E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001198310495091448</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5552279431018832</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6345540729981423</v>
       </c>
       <c r="L24">
-        <v>0.5890316201807053</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.552847916037251</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5985707776968212</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.8862454289864452</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.193685911948648</v>
+        <v>1.472219733168885</v>
       </c>
       <c r="C25">
-        <v>0.5587948941159766</v>
+        <v>0.1514474181821228</v>
       </c>
       <c r="D25">
-        <v>0.01612162433468889</v>
+        <v>0.06543347866711713</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.243721286047929</v>
+        <v>0.8368592397996082</v>
       </c>
       <c r="G25">
-        <v>1.199295837328037</v>
+        <v>0.7425681322485076</v>
       </c>
       <c r="H25">
-        <v>0.6819340368504072</v>
+        <v>0.0009902883904153725</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002256293697024958</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.524138017455698</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5948158787995794</v>
       </c>
       <c r="L25">
-        <v>0.482893022651254</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.271436455737472</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4955480399553949</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9398509015371737</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.244277107673071</v>
+        <v>1.156669380565916</v>
       </c>
       <c r="C2">
-        <v>0.1318052031266959</v>
+        <v>0.1349514379383265</v>
       </c>
       <c r="D2">
-        <v>0.05907803985302706</v>
+        <v>0.06232334341500945</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7717188123517644</v>
+        <v>0.6966024703315412</v>
       </c>
       <c r="G2">
-        <v>0.6902636702687346</v>
+        <v>0.5915630260507925</v>
       </c>
       <c r="H2">
-        <v>0.002468299357007431</v>
+        <v>0.00184760804005446</v>
       </c>
       <c r="I2">
-        <v>0.00326897146685301</v>
+        <v>0.002376668289296724</v>
       </c>
       <c r="J2">
-        <v>0.5060915306543734</v>
+        <v>0.4893087639329821</v>
       </c>
       <c r="K2">
-        <v>0.5722622802076458</v>
+        <v>0.4963420331040993</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2276774342910919</v>
       </c>
       <c r="M2">
-        <v>1.066674019119773</v>
+        <v>0.1495941457720527</v>
       </c>
       <c r="N2">
-        <v>0.4200286285936983</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.054235839263299</v>
       </c>
       <c r="P2">
-        <v>0.9845439690202369</v>
+        <v>0.4244252131496751</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9240543076092642</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.084536857298843</v>
+        <v>1.011987190634784</v>
       </c>
       <c r="C3">
-        <v>0.1195084187810949</v>
+        <v>0.1196922137597838</v>
       </c>
       <c r="D3">
-        <v>0.0550030101447021</v>
+        <v>0.05713669351251838</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7253156068911295</v>
+        <v>0.6591558902825483</v>
       </c>
       <c r="G3">
-        <v>0.6520667937104463</v>
+        <v>0.5646187032737799</v>
       </c>
       <c r="H3">
-        <v>0.003934135953981954</v>
+        <v>0.003023221988679214</v>
       </c>
       <c r="I3">
-        <v>0.004891154226545069</v>
+        <v>0.00353010371903606</v>
       </c>
       <c r="J3">
-        <v>0.4926125650399769</v>
+        <v>0.4766797328240244</v>
       </c>
       <c r="K3">
-        <v>0.5542862653869065</v>
+        <v>0.4855490857727141</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2292020715825664</v>
       </c>
       <c r="M3">
-        <v>0.9272302767665792</v>
+        <v>0.141343547686958</v>
       </c>
       <c r="N3">
-        <v>0.368811726584596</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9178514906269299</v>
       </c>
       <c r="P3">
-        <v>1.014131744906603</v>
+        <v>0.3737008236777086</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9542371050655358</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9861535726990951</v>
+        <v>0.9226104455167956</v>
       </c>
       <c r="C4">
-        <v>0.1120338996136923</v>
+        <v>0.1104747363865926</v>
       </c>
       <c r="D4">
-        <v>0.05249001293404731</v>
+        <v>0.05395632263864769</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6973318462440687</v>
+        <v>0.6365027729624302</v>
       </c>
       <c r="G4">
-        <v>0.6290242808808273</v>
+        <v>0.5484645345793098</v>
       </c>
       <c r="H4">
-        <v>0.00504520867195335</v>
+        <v>0.003922956873391614</v>
       </c>
       <c r="I4">
-        <v>0.006146847282475054</v>
+        <v>0.004450136785212777</v>
       </c>
       <c r="J4">
-        <v>0.4846197181649927</v>
+        <v>0.4689481195390641</v>
       </c>
       <c r="K4">
-        <v>0.5434005745879702</v>
+        <v>0.4789596272384316</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2300463234365431</v>
       </c>
       <c r="M4">
-        <v>0.8416453113213436</v>
+        <v>0.136912156314434</v>
       </c>
       <c r="N4">
-        <v>0.3373557407016108</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8340367619429685</v>
       </c>
       <c r="P4">
-        <v>1.032766736318663</v>
+        <v>0.342531208106692</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9732541310798322</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9450905385931776</v>
+        <v>0.8852082408449746</v>
       </c>
       <c r="C5">
-        <v>0.1091515980843596</v>
+        <v>0.1069320607059936</v>
       </c>
       <c r="D5">
-        <v>0.05150847121111113</v>
+        <v>0.05271042514022639</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6853891773093181</v>
+        <v>0.6267383694663735</v>
       </c>
       <c r="G5">
-        <v>0.6190159894763667</v>
+        <v>0.5413249914682012</v>
       </c>
       <c r="H5">
-        <v>0.005552446232594377</v>
+        <v>0.004335553883702548</v>
       </c>
       <c r="I5">
-        <v>0.006802105394785762</v>
+        <v>0.004968612355488844</v>
       </c>
       <c r="J5">
-        <v>0.4810653592511187</v>
+        <v>0.4654541708087123</v>
       </c>
       <c r="K5">
-        <v>0.5384084787383223</v>
+        <v>0.4757537907274845</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2301230733303221</v>
       </c>
       <c r="M5">
-        <v>0.8066048722437813</v>
+        <v>0.1351116771323646</v>
       </c>
       <c r="N5">
-        <v>0.3245176007505961</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7996977479820657</v>
       </c>
       <c r="P5">
-        <v>1.040104570965315</v>
+        <v>0.3298063266550173</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9808418208414036</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9371782577947556</v>
+        <v>0.8779597276175934</v>
       </c>
       <c r="C6">
-        <v>0.1088566162934654</v>
+        <v>0.1065667902973289</v>
       </c>
       <c r="D6">
-        <v>0.05140125160779974</v>
+        <v>0.05256429772072835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6826078367447153</v>
+        <v>0.6243736871853685</v>
       </c>
       <c r="G6">
-        <v>0.6164867030830976</v>
+        <v>0.5393539455468073</v>
       </c>
       <c r="H6">
-        <v>0.005644034620777671</v>
+        <v>0.004410272047497998</v>
       </c>
       <c r="I6">
-        <v>0.007020850118509614</v>
+        <v>0.005179495557530167</v>
       </c>
       <c r="J6">
-        <v>0.480032694794275</v>
+        <v>0.4644491100492445</v>
       </c>
       <c r="K6">
-        <v>0.5368587820847388</v>
+        <v>0.4745767642228635</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2298370100264613</v>
       </c>
       <c r="M6">
-        <v>0.8005863479877746</v>
+        <v>0.1346346461720138</v>
       </c>
       <c r="N6">
-        <v>0.3223684040043082</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7938006299102938</v>
       </c>
       <c r="P6">
-        <v>1.040878886244226</v>
+        <v>0.3276756921685973</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.981768252928223</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9826157327267708</v>
+        <v>0.9186394171118764</v>
       </c>
       <c r="C7">
-        <v>0.1124954945979226</v>
+        <v>0.1107570522574193</v>
       </c>
       <c r="D7">
-        <v>0.05263044196301081</v>
+        <v>0.05421802506373297</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6949698172713781</v>
+        <v>0.6330110059361687</v>
       </c>
       <c r="G7">
-        <v>0.6265033207375268</v>
+        <v>0.5492422977905846</v>
       </c>
       <c r="H7">
-        <v>0.005062814565506002</v>
+        <v>0.003941506486653812</v>
       </c>
       <c r="I7">
-        <v>0.006428643977514525</v>
+        <v>0.004776433018669479</v>
       </c>
       <c r="J7">
-        <v>0.4833528196322163</v>
+        <v>0.4623328431961653</v>
       </c>
       <c r="K7">
-        <v>0.5413587903446562</v>
+        <v>0.4764086144935433</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2289144673341781</v>
       </c>
       <c r="M7">
-        <v>0.8406242187015778</v>
+        <v>0.1361346603249594</v>
       </c>
       <c r="N7">
-        <v>0.3371362594433265</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8318787629823703</v>
       </c>
       <c r="P7">
-        <v>1.031647186921514</v>
+        <v>0.3422934277594152</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9720032804906005</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.185265092798829</v>
+        <v>1.100961419533604</v>
       </c>
       <c r="C8">
-        <v>0.1282177303591894</v>
+        <v>0.1295409385924273</v>
       </c>
       <c r="D8">
-        <v>0.0578823219403759</v>
+        <v>0.06114075847273881</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7526935771925665</v>
+        <v>0.6765577701813257</v>
       </c>
       <c r="G8">
-        <v>0.6738446468460211</v>
+        <v>0.5894985875941501</v>
       </c>
       <c r="H8">
-        <v>0.002939094126056085</v>
+        <v>0.002232814375453751</v>
       </c>
       <c r="I8">
-        <v>0.004097825828438317</v>
+        <v>0.003119708326984494</v>
       </c>
       <c r="J8">
-        <v>0.4997749885710903</v>
+        <v>0.4657247862469092</v>
       </c>
       <c r="K8">
-        <v>0.5634218417287613</v>
+        <v>0.4878467538921711</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2262094094308935</v>
       </c>
       <c r="M8">
-        <v>1.017842396634791</v>
+        <v>0.1450455178934327</v>
       </c>
       <c r="N8">
-        <v>0.4023073466065199</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.002601257772966</v>
       </c>
       <c r="P8">
-        <v>0.9930989474747065</v>
+        <v>0.406813939272908</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9319046517463185</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.585960042174207</v>
+        <v>1.461807891738943</v>
       </c>
       <c r="C9">
-        <v>0.1589347194199036</v>
+        <v>0.1676731571829322</v>
       </c>
       <c r="D9">
-        <v>0.06782824546488797</v>
+        <v>0.07405407352434423</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8742666503223262</v>
+        <v>0.7733820376674032</v>
       </c>
       <c r="G9">
-        <v>0.7745729030454527</v>
+        <v>0.6646452170699888</v>
       </c>
       <c r="H9">
-        <v>0.0005381415147376334</v>
+        <v>0.0003519336619490776</v>
       </c>
       <c r="I9">
-        <v>0.001304622127550559</v>
+        <v>0.001150126818673769</v>
       </c>
       <c r="J9">
-        <v>0.5365575348363194</v>
+        <v>0.4938862311724677</v>
       </c>
       <c r="K9">
-        <v>0.6115523996210754</v>
+        <v>0.5164884111820527</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2227086306968928</v>
       </c>
       <c r="M9">
-        <v>1.36709873074409</v>
+        <v>0.1694687278668709</v>
       </c>
       <c r="N9">
-        <v>0.5302920911765767</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.342348459664066</v>
       </c>
       <c r="P9">
-        <v>0.9234422754581324</v>
+        <v>0.5334341672092364</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8603315080642453</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.862857538252683</v>
+        <v>1.706513003549361</v>
       </c>
       <c r="C10">
-        <v>0.1852119040066498</v>
+        <v>0.1984483498797971</v>
       </c>
       <c r="D10">
-        <v>0.07601632044215023</v>
+        <v>0.08524518029214789</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9551201826145217</v>
+        <v>0.8294296588419598</v>
       </c>
       <c r="G10">
-        <v>0.838602015785213</v>
+        <v>0.7302724761890289</v>
       </c>
       <c r="H10">
-        <v>0.0001982422854682753</v>
+        <v>0.0001880057248682121</v>
       </c>
       <c r="I10">
-        <v>0.0009021462300911054</v>
+        <v>0.001080630114856262</v>
       </c>
       <c r="J10">
-        <v>0.5588875814099339</v>
+        <v>0.4800175478532651</v>
       </c>
       <c r="K10">
-        <v>0.6375502399540025</v>
+        <v>0.5255653564491922</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2153201758444823</v>
       </c>
       <c r="M10">
-        <v>1.621644927759178</v>
+        <v>0.185699276262941</v>
       </c>
       <c r="N10">
-        <v>0.5945918143656712</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.58250003108094</v>
       </c>
       <c r="P10">
-        <v>0.8694829628060674</v>
+        <v>0.5964858204833519</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8057111385094267</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.852315257434384</v>
+        <v>1.694765986358306</v>
       </c>
       <c r="C11">
-        <v>0.2251917252629738</v>
+        <v>0.239310423768174</v>
       </c>
       <c r="D11">
-        <v>0.08778868907100446</v>
+        <v>0.09996090754732023</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8976274896946279</v>
+        <v>0.7649672234751534</v>
       </c>
       <c r="G11">
-        <v>0.7665528520656153</v>
+        <v>0.7067928841005084</v>
       </c>
       <c r="H11">
-        <v>0.01878147404732999</v>
+        <v>0.01876411345275386</v>
       </c>
       <c r="I11">
-        <v>0.001432345544799318</v>
+        <v>0.001750392311037352</v>
       </c>
       <c r="J11">
-        <v>0.5181408977129962</v>
+        <v>0.3923619641678613</v>
       </c>
       <c r="K11">
-        <v>0.5678211048544952</v>
+        <v>0.4602471769976901</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1879163368924637</v>
       </c>
       <c r="M11">
-        <v>1.711292424947629</v>
+        <v>0.1652810313173774</v>
       </c>
       <c r="N11">
-        <v>0.3910624706295067</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.656392561868984</v>
       </c>
       <c r="P11">
-        <v>0.8094140908454452</v>
+        <v>0.3923007697557495</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7643557610850211</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.789365335551565</v>
+        <v>1.639868237897019</v>
       </c>
       <c r="C12">
-        <v>0.2569794131921697</v>
+        <v>0.2705541718946876</v>
       </c>
       <c r="D12">
-        <v>0.09653665844742676</v>
+        <v>0.110088251725152</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8362134224943958</v>
+        <v>0.707674334500787</v>
       </c>
       <c r="G12">
-        <v>0.6979336972102033</v>
+        <v>0.6649435997275646</v>
       </c>
       <c r="H12">
-        <v>0.05749935744623258</v>
+        <v>0.05746996894582423</v>
       </c>
       <c r="I12">
-        <v>0.00143333677744728</v>
+        <v>0.001751594687316782</v>
       </c>
       <c r="J12">
-        <v>0.4817003359682559</v>
+        <v>0.3456945732597205</v>
       </c>
       <c r="K12">
-        <v>0.5097869273897686</v>
+        <v>0.411711397182895</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1698724171923054</v>
       </c>
       <c r="M12">
-        <v>1.733510162808017</v>
+        <v>0.1473509085617231</v>
       </c>
       <c r="N12">
-        <v>0.2433897619646217</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.672717168446042</v>
       </c>
       <c r="P12">
-        <v>0.7801608247359511</v>
+        <v>0.2444198383080192</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7514455610384445</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.678183634949107</v>
+        <v>1.546029222746739</v>
       </c>
       <c r="C13">
-        <v>0.2846225722159375</v>
+        <v>0.2982037217886671</v>
       </c>
       <c r="D13">
-        <v>0.1035999938641723</v>
+        <v>0.116829124781539</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7647008989334978</v>
+        <v>0.6515910361236692</v>
       </c>
       <c r="G13">
-        <v>0.6242122110165411</v>
+        <v>0.5965685034340709</v>
       </c>
       <c r="H13">
-        <v>0.1133435195119148</v>
+        <v>0.1132867487300473</v>
       </c>
       <c r="I13">
-        <v>0.001387226605018554</v>
+        <v>0.001678452514784823</v>
       </c>
       <c r="J13">
-        <v>0.4444960835090228</v>
+        <v>0.327864082464707</v>
       </c>
       <c r="K13">
-        <v>0.4543186818640166</v>
+        <v>0.371106233376878</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1564415381373436</v>
       </c>
       <c r="M13">
-        <v>1.7039392385268</v>
+        <v>0.1300548734816047</v>
       </c>
       <c r="N13">
-        <v>0.130499318076815</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.647864527144577</v>
       </c>
       <c r="P13">
-        <v>0.7702360017225756</v>
+        <v>0.1315744257711629</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7553379421822584</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.578418681797672</v>
+        <v>1.462245452713802</v>
       </c>
       <c r="C14">
-        <v>0.3026933627218682</v>
+        <v>0.3166844596255203</v>
       </c>
       <c r="D14">
-        <v>0.1078780974371369</v>
+        <v>0.1200356673048901</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7100441812401357</v>
+        <v>0.6121268881550748</v>
       </c>
       <c r="G14">
-        <v>0.5704102650417298</v>
+        <v>0.5384414905369823</v>
       </c>
       <c r="H14">
-        <v>0.162794457691561</v>
+        <v>0.1627050106195043</v>
       </c>
       <c r="I14">
-        <v>0.001445448956612694</v>
+        <v>0.001711309812876038</v>
       </c>
       <c r="J14">
-        <v>0.4181106543558997</v>
+        <v>0.3256779528919651</v>
       </c>
       <c r="K14">
-        <v>0.4169193826808772</v>
+        <v>0.345816950288178</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1487167301346233</v>
       </c>
       <c r="M14">
-        <v>1.65973032229482</v>
+        <v>0.1183162602843737</v>
       </c>
       <c r="N14">
-        <v>0.07279799808832621</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.611564319643293</v>
       </c>
       <c r="P14">
-        <v>0.7727619862829957</v>
+        <v>0.07397255215266796</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7651915325157681</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.543000496455903</v>
+        <v>1.432511274046902</v>
       </c>
       <c r="C15">
-        <v>0.3059477000327746</v>
+        <v>0.3203410357129002</v>
       </c>
       <c r="D15">
-        <v>0.1085291611807122</v>
+        <v>0.1200778883400346</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6938448001493001</v>
+        <v>0.6016244362670022</v>
       </c>
       <c r="G15">
-        <v>0.5553118327903803</v>
+        <v>0.5192024310303793</v>
       </c>
       <c r="H15">
-        <v>0.1753530114930442</v>
+        <v>0.1752470278040619</v>
       </c>
       <c r="I15">
-        <v>0.001582657750939021</v>
+        <v>0.00185306889999648</v>
       </c>
       <c r="J15">
-        <v>0.4110794818061123</v>
+        <v>0.3292674565638691</v>
       </c>
       <c r="K15">
-        <v>0.4074614771018439</v>
+        <v>0.3402185985224939</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1472747852691008</v>
       </c>
       <c r="M15">
-        <v>1.637801827226383</v>
+        <v>0.1152954063870482</v>
       </c>
       <c r="N15">
-        <v>0.0614014253880093</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.593543273590825</v>
       </c>
       <c r="P15">
-        <v>0.7762897910923421</v>
+        <v>0.06263820206567061</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7697742722219445</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.447751348577071</v>
+        <v>1.352660756512392</v>
       </c>
       <c r="C16">
-        <v>0.2882329844822209</v>
+        <v>0.3047579104577522</v>
       </c>
       <c r="D16">
-        <v>0.1033755622781598</v>
+        <v>0.1120683638603879</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6728755534697655</v>
+        <v>0.5975497047778475</v>
       </c>
       <c r="G16">
-        <v>0.542101508121732</v>
+        <v>0.4808445379180739</v>
       </c>
       <c r="H16">
-        <v>0.1628700655063398</v>
+        <v>0.1626706365583033</v>
       </c>
       <c r="I16">
-        <v>0.001864443143071881</v>
+        <v>0.002037751513570107</v>
       </c>
       <c r="J16">
-        <v>0.4084894692492753</v>
+        <v>0.3686376602304549</v>
       </c>
       <c r="K16">
-        <v>0.4071010202754408</v>
+        <v>0.3477348087904488</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1524189513383156</v>
       </c>
       <c r="M16">
-        <v>1.534038095200458</v>
+        <v>0.1145300256269692</v>
       </c>
       <c r="N16">
-        <v>0.06040643259327538</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.506182559335969</v>
       </c>
       <c r="P16">
-        <v>0.7986308898249224</v>
+        <v>0.06204938099999779</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7864998936990055</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.427120871533617</v>
+        <v>1.334603705222491</v>
       </c>
       <c r="C17">
-        <v>0.2649017623289467</v>
+        <v>0.2819022022249271</v>
       </c>
       <c r="D17">
-        <v>0.09715157149752685</v>
+        <v>0.1046188649109681</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6856330360926179</v>
+        <v>0.6140238005619381</v>
       </c>
       <c r="G17">
-        <v>0.5602013933787902</v>
+        <v>0.4850432023787619</v>
       </c>
       <c r="H17">
-        <v>0.1252313041234885</v>
+        <v>0.1249755666235899</v>
       </c>
       <c r="I17">
-        <v>0.002091805224155863</v>
+        <v>0.002202245389776536</v>
       </c>
       <c r="J17">
-        <v>0.4204074685174533</v>
+        <v>0.3974023497950299</v>
       </c>
       <c r="K17">
-        <v>0.4262397656109975</v>
+        <v>0.3664220054309197</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1607071610707038</v>
       </c>
       <c r="M17">
-        <v>1.478077324405888</v>
+        <v>0.1196515063502268</v>
       </c>
       <c r="N17">
-        <v>0.08628655262421603</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.456588067008084</v>
       </c>
       <c r="P17">
-        <v>0.8141775059869092</v>
+        <v>0.08822818358869</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7956159691188525</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.470938046568563</v>
+        <v>1.37158214659604</v>
       </c>
       <c r="C18">
-        <v>0.2352675483307252</v>
+        <v>0.2519044030916149</v>
       </c>
       <c r="D18">
-        <v>0.08945105892325955</v>
+        <v>0.09649764375926395</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7310488921145577</v>
+        <v>0.654623768186255</v>
       </c>
       <c r="G18">
-        <v>0.6101855266647931</v>
+        <v>0.5218480392615135</v>
       </c>
       <c r="H18">
-        <v>0.07236922563637904</v>
+        <v>0.07211005693380912</v>
       </c>
       <c r="I18">
-        <v>0.001912201308454264</v>
+        <v>0.001959390567094488</v>
       </c>
       <c r="J18">
-        <v>0.4475258024649662</v>
+        <v>0.4283830362954006</v>
       </c>
       <c r="K18">
-        <v>0.4674036940550579</v>
+        <v>0.4006412852974037</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1741780798364054</v>
       </c>
       <c r="M18">
-        <v>1.456962910000556</v>
+        <v>0.131609996030793</v>
       </c>
       <c r="N18">
-        <v>0.1569782207834223</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.436844262266447</v>
       </c>
       <c r="P18">
-        <v>0.8299050316976986</v>
+        <v>0.1591940467254886</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8021492850235923</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.559119151854787</v>
+        <v>1.446445823296671</v>
       </c>
       <c r="C19">
-        <v>0.2071061630444859</v>
+        <v>0.2228060409222508</v>
       </c>
       <c r="D19">
-        <v>0.08198031915806325</v>
+        <v>0.08904552976127889</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7972531150553266</v>
+        <v>0.7104069402658055</v>
       </c>
       <c r="G19">
-        <v>0.680780622067374</v>
+        <v>0.5782239418376491</v>
       </c>
       <c r="H19">
-        <v>0.02688556039869638</v>
+        <v>0.02667989637948409</v>
       </c>
       <c r="I19">
-        <v>0.001946916904548956</v>
+        <v>0.002053476440370794</v>
       </c>
       <c r="J19">
-        <v>0.4839997143788821</v>
+        <v>0.4610808467319885</v>
       </c>
       <c r="K19">
-        <v>0.5234419525888896</v>
+        <v>0.445134603136804</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1909109260814965</v>
       </c>
       <c r="M19">
-        <v>1.46415247388785</v>
+        <v>0.148281994718392</v>
       </c>
       <c r="N19">
-        <v>0.2871072569878521</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.442498533446297</v>
       </c>
       <c r="P19">
-        <v>0.8499879278352118</v>
+        <v>0.289544933228143</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8104513922467569</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.779995697587367</v>
+        <v>1.635341742296191</v>
       </c>
       <c r="C20">
-        <v>0.1800195991776263</v>
+        <v>0.1935407664154383</v>
       </c>
       <c r="D20">
-        <v>0.0744135256650722</v>
+        <v>0.08246317421831861</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9263485089521453</v>
+        <v>0.8126517461241605</v>
       </c>
       <c r="G20">
-        <v>0.8136978007213287</v>
+        <v>0.6945282549289118</v>
       </c>
       <c r="H20">
-        <v>0.0001939096816889752</v>
+        <v>0.0001489306235535892</v>
       </c>
       <c r="I20">
-        <v>0.001698532978535283</v>
+        <v>0.001967484352427107</v>
       </c>
       <c r="J20">
-        <v>0.5489100399565814</v>
+        <v>0.4982881962502859</v>
       </c>
       <c r="K20">
-        <v>0.6241816362501424</v>
+        <v>0.5202048566184629</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2161635824069741</v>
       </c>
       <c r="M20">
-        <v>1.552780303526447</v>
+        <v>0.1801248433169889</v>
       </c>
       <c r="N20">
-        <v>0.5762917929855433</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.521912858629491</v>
       </c>
       <c r="P20">
-        <v>0.8799969404958681</v>
+        <v>0.5785937940675296</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8188221136022804</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.017644032705732</v>
+        <v>1.831286588429862</v>
       </c>
       <c r="C21">
-        <v>0.1960109275872242</v>
+        <v>0.2069307206173789</v>
       </c>
       <c r="D21">
-        <v>0.07932175655086127</v>
+        <v>0.0920726111830561</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.007579877485654</v>
+        <v>0.8466249315566756</v>
       </c>
       <c r="G21">
-        <v>0.8832747651104427</v>
+        <v>0.8237866159751235</v>
       </c>
       <c r="H21">
-        <v>7.289570892621278E-05</v>
+        <v>9.520504400306606E-05</v>
       </c>
       <c r="I21">
-        <v>0.001730994744017167</v>
+        <v>0.0021122590998921</v>
       </c>
       <c r="J21">
-        <v>0.576428624991479</v>
+        <v>0.407793618558415</v>
       </c>
       <c r="K21">
-        <v>0.660355272976652</v>
+        <v>0.5261614522947866</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2103042557158723</v>
       </c>
       <c r="M21">
-        <v>1.753503614414541</v>
+        <v>0.1928104296076256</v>
       </c>
       <c r="N21">
-        <v>0.6722458454561036</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.687623403801894</v>
       </c>
       <c r="P21">
-        <v>0.8477675107826208</v>
+        <v>0.6731868471449047</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7769900127758316</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.169326974275464</v>
+        <v>1.954942050136111</v>
       </c>
       <c r="C22">
-        <v>0.2073872003334287</v>
+        <v>0.216304027610235</v>
       </c>
       <c r="D22">
-        <v>0.08273663696439826</v>
+        <v>0.09885230500665187</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.058907706828961</v>
+        <v>0.8652587642026219</v>
       </c>
       <c r="G22">
-        <v>0.9266640123456824</v>
+        <v>0.9159926289618738</v>
       </c>
       <c r="H22">
-        <v>0.0003569505637777137</v>
+        <v>0.0003566247665283129</v>
       </c>
       <c r="I22">
-        <v>0.001782827104665152</v>
+        <v>0.002073167188395786</v>
       </c>
       <c r="J22">
-        <v>0.5934164920602143</v>
+        <v>0.3512254876403063</v>
       </c>
       <c r="K22">
-        <v>0.6820168777670759</v>
+        <v>0.5274295208767938</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2056472315903903</v>
       </c>
       <c r="M22">
-        <v>1.88442346016484</v>
+        <v>0.2004039488596305</v>
       </c>
       <c r="N22">
-        <v>0.7198816895434561</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.793354487701748</v>
       </c>
       <c r="P22">
-        <v>0.8261127385388392</v>
+        <v>0.7198748510111415</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7497535395009072</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.092031651654111</v>
+        <v>1.894197335446336</v>
       </c>
       <c r="C23">
-        <v>0.2006663312221804</v>
+        <v>0.2112722058076173</v>
       </c>
       <c r="D23">
-        <v>0.08071817410944249</v>
+        <v>0.09465076670119288</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.034036760855415</v>
+        <v>0.8610384875789805</v>
       </c>
       <c r="G23">
-        <v>0.9062534167078553</v>
+        <v>0.859926235969013</v>
       </c>
       <c r="H23">
-        <v>0.000181164785949095</v>
+        <v>0.0002003297789736624</v>
       </c>
       <c r="I23">
-        <v>0.001424586223309099</v>
+        <v>0.001711573457511051</v>
       </c>
       <c r="J23">
-        <v>0.5857321908465849</v>
+        <v>0.3919601698445376</v>
       </c>
       <c r="K23">
-        <v>0.672739047448573</v>
+        <v>0.5305592330929372</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2094184464181659</v>
       </c>
       <c r="M23">
-        <v>1.815199130576872</v>
+        <v>0.1978907566842025</v>
       </c>
       <c r="N23">
-        <v>0.6944998367360711</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.740824446643757</v>
       </c>
       <c r="P23">
-        <v>0.8388266179036279</v>
+        <v>0.6950425506843629</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7654984215360825</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.793618854316719</v>
+        <v>1.647336368582415</v>
       </c>
       <c r="C24">
-        <v>0.1766606669851001</v>
+        <v>0.1896770092609614</v>
       </c>
       <c r="D24">
-        <v>0.07338437696483169</v>
+        <v>0.08133955626259848</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9374520277430918</v>
+        <v>0.8224212269689417</v>
       </c>
       <c r="G24">
-        <v>0.8259897359275357</v>
+        <v>0.704366426634536</v>
       </c>
       <c r="H24">
-        <v>5.895578794867795E-05</v>
+        <v>2.062379754952381E-05</v>
       </c>
       <c r="I24">
-        <v>0.001198310495091448</v>
+        <v>0.001370421688736911</v>
       </c>
       <c r="J24">
-        <v>0.5552279431018832</v>
+        <v>0.50458446787448</v>
       </c>
       <c r="K24">
-        <v>0.6345540729981423</v>
+        <v>0.5287897377077613</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2194179288003504</v>
       </c>
       <c r="M24">
-        <v>1.552847916037251</v>
+        <v>0.1833122093302428</v>
       </c>
       <c r="N24">
-        <v>0.5985707776968212</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.521983278993503</v>
       </c>
       <c r="P24">
-        <v>0.8862454289864452</v>
+        <v>0.6008897393020618</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8226874693237445</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.472219733168885</v>
+        <v>1.360375300546423</v>
       </c>
       <c r="C25">
-        <v>0.1514474181821228</v>
+        <v>0.1587493535847671</v>
       </c>
       <c r="D25">
-        <v>0.06543347866711713</v>
+        <v>0.07070610035946601</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8368592397996082</v>
+        <v>0.7450534887221707</v>
       </c>
       <c r="G25">
-        <v>0.7425681322485076</v>
+        <v>0.6356133284230481</v>
       </c>
       <c r="H25">
-        <v>0.0009902883904153725</v>
+        <v>0.0006925381533806618</v>
       </c>
       <c r="I25">
-        <v>0.002256293697024958</v>
+        <v>0.002004719156915691</v>
       </c>
       <c r="J25">
-        <v>0.524138017455698</v>
+        <v>0.4917529477150993</v>
       </c>
       <c r="K25">
-        <v>0.5948158787995794</v>
+        <v>0.5066466992385372</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2229385902315855</v>
       </c>
       <c r="M25">
-        <v>1.271436455737472</v>
+        <v>0.1615658321628537</v>
       </c>
       <c r="N25">
-        <v>0.4955480399553949</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.251114731638353</v>
       </c>
       <c r="P25">
-        <v>0.9398509015371737</v>
+        <v>0.4991107709033429</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8784439979557561</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
